--- a/spreadsheet/security_checklist.pt.xlsx
+++ b/spreadsheet/security_checklist.pt.xlsx
@@ -1652,18 +1652,18 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Recomendações</t>
+          <t>Preços e Configurações</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Todas as recomendações remediadas ou desativadas, se não forem necessárias.</t>
+          <t>Se usar o proxy do aplicativo Azure AD, considere integrar-se ao Microsoft Defender for Cloud Apps para monitorar o acesso de aplicativos em tempo real e aplicar controles de segurança avançados.</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1703,17 +1703,13 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Pontuação de segurança&gt;70%</t>
-        </is>
-      </c>
-      <c r="D21" s="22" t="inlineStr">
-        <is>
-          <t>A meta mínima da Microsoft para todos os clientes é de 70%</t>
-        </is>
-      </c>
+          <t>Todas as recomendações remediadas ou desativadas, se não forem necessárias.</t>
+        </is>
+      </c>
+      <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1724,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1732,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1748,18 +1744,22 @@
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Alertas de secuidade</t>
+          <t>Recomendações</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Os alertas de segurança contêm apenas aqueles gerados nas últimas 24 horas (remediar ou desativar alertas de segurança mais antigos)</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="n"/>
+          <t>Pontuação de segurança&gt;70%</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>A meta mínima da Microsoft para todos os clientes é de 70%</t>
+        </is>
+      </c>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1770,7 +1770,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1778,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1794,12 +1794,12 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Alertas de secuidade</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Se a exportação contínua estiver ativada, as pastas de trabalho padrão são publicadas no painel de segurança personalizado</t>
+          <t>Os alertas de segurança contêm apenas aqueles gerados nas últimas 24 horas (remediar ou desativar alertas de segurança mais antigos)</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1816,7 +1816,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1824,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Comunidade</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>O cliente está ciente do valor da página 'Comunidade' e tem uma cadência regular configurada para revisar</t>
+          <t>Se a exportação contínua estiver ativada, as pastas de trabalho padrão são publicadas no painel de segurança personalizado</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1862,7 +1862,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1870,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1886,22 +1886,18 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Pontuação segura</t>
+          <t>Comunidade</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Todas as assinaturas protegidas pelo Security Center são mostradas (sem conjunto de filtros de assinatura)</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - Transparência</t>
-        </is>
-      </c>
+          <t>O cliente está ciente do valor da página 'Comunidade' e tem uma cadência regular configurada para revisar</t>
+        </is>
+      </c>
+      <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1912,7 +1908,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1936,15 +1932,19 @@
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Conformidade regulatória</t>
+          <t>Pontuação segura</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Os controles de conformidade são verdes para quaisquer requisitos de conformidade necessários</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="n"/>
+          <t>Todas as assinaturas protegidas pelo Security Center são mostradas (sem conjunto de filtros de assinatura)</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - Transparência</t>
+        </is>
+      </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1958,7 +1958,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1966,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1982,19 +1982,15 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Conformidade regulatória</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Vulnerabilidades VM de alta gravidade são zero (vazias)</t>
-        </is>
-      </c>
-      <c r="D27" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verificar</t>
-        </is>
-      </c>
+          <t>Os controles de conformidade são verdes para quaisquer requisitos de conformidade necessários</t>
+        </is>
+      </c>
+      <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2008,14 +2004,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2031,18 +2027,22 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Hubs são protegidos por um Firewall Azure</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="n"/>
+          <t>Vulnerabilidades VM de alta gravidade são zero (vazias)</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2053,14 +2053,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>960334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2081,14 +2081,10 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuais são protegidas por um Firewall</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verificar</t>
-        </is>
-      </c>
+          <t>Hubs são protegidos por um Firewall Azure</t>
+        </is>
+      </c>
+      <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2102,14 +2098,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>960334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2130,10 +2126,14 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Padrão DDoS ativado</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>Redes virtuais são protegidas por um Firewall</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2147,14 +2147,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2170,18 +2170,18 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Cobertura</t>
+          <t>Gerente de Firewall</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Verifique se todas as assinaturas estão cobertas (veja preços e configurações para modificar)</t>
+          <t>Padrão DDoS ativado</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2192,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2210,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>IPs públicos</t>
+          <t>Cobertura</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VM's com IPs públicos devem ser protegidos pelo NSG </t>
+          <t>Verifique se todas as assinaturas estão cobertas (veja preços e configurações para modificar)</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2237,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2245,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb2eb0</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2266,14 +2266,10 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>VMs com IPs públicos são movidos atrás do Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D33" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t xml:space="preserve">VM's com IPs públicos devem ser protegidos pelo NSG </t>
+        </is>
+      </c>
+      <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2295,7 +2291,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb2eb0</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2316,7 +2312,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>VM's que não precisam de IPs públicos não têm IPs públicos (ou seja, somente RDP interno)</t>
+          <t>VMs com IPs públicos são movidos atrás do Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
@@ -2337,7 +2333,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2345,7 +2341,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2361,18 +2357,22 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>IPs públicos</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>O NSG RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="n"/>
+          <t>VM's que não precisam de IPs públicos não têm IPs públicos (ou seja, somente RDP interno)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+        </is>
+      </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2383,7 +2383,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2391,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2412,17 +2412,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>As regras de segurança de entrada do NSG não contêm um * (curinga) no campo Fonte</t>
-        </is>
-      </c>
-      <c r="D36" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>O NSG RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2441,7 +2437,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2462,7 +2458,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>As regras de segurança de saída do NSG são usadas para controlar o tráfego de endereços IP específicos para tráfego não roteado através de um Firewall</t>
+          <t>As regras de segurança de entrada do NSG não contêm um * (curinga) no campo Fonte</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
@@ -2472,7 +2468,7 @@
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2491,7 +2487,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2512,7 +2508,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>O NSG não tem a Fonte como um curinga no lugar.</t>
+          <t>As regras de segurança de saída do NSG são usadas para controlar o tráfego de endereços IP específicos para tráfego não roteado através de um Firewall</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
@@ -2522,7 +2518,7 @@
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2541,7 +2537,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2562,13 +2558,17 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Os diagnósticos NSG enviam o NetworkSecurityGroupEvent e o NetworkSecurityGroupRuleCounter para o Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D39" s="22" t="n"/>
+          <t>O NSG não tem a Fonte como um curinga no lugar.</t>
+        </is>
+      </c>
+      <c r="D39" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+        </is>
+      </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2587,7 +2587,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2603,12 +2603,12 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>Os diagnósticos NSG enviam o NetworkSecurityGroupEvent e o NetworkSecurityGroupRuleCounter para o Sentinel LAW</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2633,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2654,13 +2654,13 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Se o Zero Trust, então os UDR's são usados para enviar todo o tráfego para o Azure Firewall Premium</t>
+          <t>UDR RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2679,7 +2679,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2700,17 +2700,13 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Os UDR's que não enviam todo o tráfego para OzureFirewallPremium são conhecidos e documentados.</t>
-        </is>
-      </c>
-      <c r="D42" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>Se o Zero Trust, então os UDR's são usados para enviar todo o tráfego para o Azure Firewall Premium</t>
+        </is>
+      </c>
+      <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2729,7 +2725,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2745,18 +2741,22 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>O cliente está familiarizado com os padrões de rede do Azure / roteamento padrão SDN no Azure</t>
-        </is>
-      </c>
-      <c r="D43" s="22" t="n"/>
+          <t>Os UDR's que não enviam todo o tráfego para OzureFirewallPremium são conhecidos e documentados.</t>
+        </is>
+      </c>
+      <c r="D43" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+        </is>
+      </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2767,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2775,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2796,17 +2796,13 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>O VNet RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>O cliente está familiarizado com os padrões de rede do Azure / roteamento padrão SDN no Azure</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2817,7 +2813,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2825,7 +2821,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2846,13 +2842,17 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As recomendações de segurança do VNet são remediadas e não há VNets 'em risco' </t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="n"/>
+          <t>O VNet RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+        </is>
+      </c>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2863,14 +2863,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>As conexões de peering do VNet são compreendidas e os fluxos de tráfego esperados são documentados</t>
+          <t xml:space="preserve">As recomendações de segurança do VNet são remediadas e não há VNets 'em risco' </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2908,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2916,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Os endpoints de serviço VNet estão em uso, não existem pontos finais legados do serviço público</t>
+          <t>As conexões de peering do VNet são compreendidas e os fluxos de tráfego esperados são documentados</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2954,7 +2954,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2962,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>VNet Private Endpoings estão em uso para permitir acesso a ambientes locais, não existem pontos finais públicos legados</t>
+          <t>Os endpoints de serviço VNet estão em uso, não existem pontos finais legados do serviço público</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +3000,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento do VNet ativado</t>
+          <t>VNet Private Endpoings estão em uso para permitir acesso a ambientes locais, não existem pontos finais públicos legados</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3045,14 +3045,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>VNet Kubernetes - coberto por Centro de Segurança</t>
+          <t>Monitoramento do VNet ativado</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3090,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3098,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Cliente VNet NVA (eletrodomésticos) segue padrão de arquitetura publicado</t>
+          <t>VNet Kubernetes - coberto por Centro de Segurança</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3136,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3144,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>As configurações do VNet Diagnostic estão habilitadas e enviam VMProtectionAlerts para a LEI do Azure Sentinel</t>
+          <t>Cliente VNet NVA (eletrodomésticos) segue padrão de arquitetura publicado</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3182,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3190,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Use o ExpressRoute ou VPN para acessar recursos do Azure a partir de ambientes locais</t>
+          <t>As configurações do VNet Diagnostic estão habilitadas e enviam VMProtectionAlerts para a LEI do Azure Sentinel</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3228,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Alcance Global</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>O cliente está usando a Global Reach para se conectar privadamente a serviços em execução em outras regiões</t>
+          <t>Use o ExpressRoute ou VPN para acessar recursos do Azure a partir de ambientes locais</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3273,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
+          <t>https://docs.microsoft.com/azure/expressroute/</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3281,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Alcance Global</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>O cliente está usando a Global Reach para se conectar privadamente a serviços em execução em outras regiões</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3319,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>O cliente VWAN está usando o Secure Hub ou firewall externo para rotear e monitorar o tráfego.</t>
+          <t>VWAN RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3364,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+          <t>O cliente VWAN está usando o Secure Hub ou firewall externo para rotear e monitorar o tráfego.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3409,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos os serviços web voltados externos estão afer gateways de aplicativos com WAF ativado </t>
+          <t>AppGW RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3454,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos os serviços internos voltados para a Web estão behing Application Gateways com WAF ativado </t>
+          <t xml:space="preserve">AppGW Todos os serviços web voltados externos estão afer gateways de aplicativos com WAF ativado </t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3506,7 +3506,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - Frente externa tem TLS/SSL ativado e redireciona todo o tráfego para 443 (sem tráfego na porta 80)</t>
+          <t xml:space="preserve">AppGW Todos os serviços internos voltados para a Web estão behing Application Gateways com WAF ativado </t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3544,14 +3544,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>O FRONT Door RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>AppGW - Frente externa tem TLS/SSL ativado e redireciona todo o tráfego para 443 (sem tráfego na porta 80)</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3589,14 +3589,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente está associada a uma política WAF</t>
+          <t>O FRONT Door RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3634,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>A política TLS/SSL da porta frontal está configurada</t>
+          <t>Porta da Frente está associada a uma política WAF</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3679,7 +3679,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3687,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Porta de redirecionamento da porta 80 para porta 443 está configurada (ouvintes)</t>
+          <t>A política TLS/SSL da porta frontal está configurada</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3725,7 +3725,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3733,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Os registros de diagnósticos da Porta frontal enviam o ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog para o Sentinel LAW</t>
+          <t>Porta de redirecionamento da porta 80 para porta 443 está configurada (ouvintes)</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3771,7 +3771,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3779,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Proteção DDOS</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP's públicos do Firewall (todos os IPs públicos)</t>
+          <t>Os registros de diagnósticos da Porta frontal enviam o ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog para o Sentinel LAW</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3817,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3835,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Rede Azure</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Proteção DDOS</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um único diretório empresarial para gerenciar identidades de funcionários em tempo integral e recursos corporativos.</t>
+          <t>Habilitado para IP's públicos do Firewall (todos os IPs públicos)</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3870,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Sincronize sua identidade na nuvem com seus sistemas de identidade existentes.</t>
+          <t>Estabeleça um único diretório empresarial para gerenciar identidades de funcionários em tempo integral e recursos corporativos.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -3908,7 +3908,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3916,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use serviços de identidade na nuvem para hospedar contas não-funcionários, como fornecedores, parceiros e clientes, em vez de incluí-las em seu diretório local.</t>
+          <t>Sincronize sua identidade na nuvem com seus sistemas de identidade existentes.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3954,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3962,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Desativar protocolos legados inseguros para serviços voltados à internet.</t>
+          <t>Use serviços de identidade na nuvem para hospedar contas não-funcionários, como fornecedores, parceiros e clientes, em vez de incluí-las em seu diretório local.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4000,7 +4000,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4008,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Habilitar um único login</t>
+          <t>Desativar protocolos legados inseguros para serviços voltados à internet.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4046,7 +4046,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4054,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Não sincronize contas com o maior acesso privilegiado aos recursos locais à medida que você sincroniza seus sistemas de identidade corporativa com diretórios em nuvem.</t>
+          <t>Habilitar um único login</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4092,7 +4092,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limitar o número de administradores globais a menos de 5</t>
+          <t>Não sincronize contas com o maior acesso privilegiado aos recursos locais à medida que você sincroniza seus sistemas de identidade corporativa com diretórios em nuvem.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4138,7 +4138,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4146,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use grupos para atribuições de papéis do Azure AD e delegue a atribuição de função</t>
+          <t>Limitar o número de administradores globais a menos de 5</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4184,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os administradores de impacto críticos sejam gerenciados pelo diretório corporativo para acompanhar a aplicação da política organizacional.</t>
+          <t>Use grupos para atribuições de papéis do Azure AD e delegue a atribuição de função</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4230,7 +4230,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4238,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configure revisões de acesso recorrentes para revogar permissões não precisas ao longo do tempo</t>
+          <t>Certifique-se de que todos os administradores de impacto críticos sejam gerenciados pelo diretório corporativo para acompanhar a aplicação da política organizacional.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4276,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4284,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os administradores de impacto crítico usem uma estação de trabalho com proteções de segurança elevadas e monitoramento</t>
+          <t>Configure revisões de acesso recorrentes para revogar permissões não precisas ao longo do tempo</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4346,18 +4346,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Provedores de identidade: Verifique se são conhecidos os provedores de identidade externos</t>
+          <t>Certifique-se de que os administradores de impacto crítico usem uma estação de trabalho com proteções de segurança elevadas e monitoramento</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: o acesso do usuário convidado definido para 'Acesso ao usuário convidado é restrito?'</t>
+          <t>Provedores de identidade: Verifique se são conhecidos os provedores de identidade externos</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: Configurações de convite de hóspedes definidas como 'Somente usuários atribuídos a funções específicas de administração'</t>
+          <t>Configurações de colaboração externa: o acesso do usuário convidado definido para 'Acesso ao usuário convidado é restrito?'</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configurações de colaboração externa: habilite o autoatendimento do hóspede por meio de fluxos definidos como 'Desativados' </t>
+          <t>Configurações de colaboração externa: Configurações de convite de hóspedes definidas como 'Somente usuários atribuídos a funções específicas de administração'</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: restrições de colaboração definidas como 'Permitir convites para os domínios especificados'</t>
+          <t xml:space="preserve">Configurações de colaboração externa: habilite o autoatendimento do hóspede por meio de fluxos definidos como 'Desativados' </t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4581,13 +4581,13 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Avaliações de acesso: Habilitadas para todos os grupos</t>
+          <t>Configurações de colaboração externa: restrições de colaboração definidas como 'Permitir convites para os domínios especificados'</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Aplicações Corporativas</t>
+          <t>Identidades Externas</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consentimento &amp; Permissões: Permitir o consentimento do usuário para aplicativos de editores verificados</t>
+          <t>Avaliações de acesso: Habilitadas para todos os grupos</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consentimento &amp; Permissões: Permitir o consentimento do proprietário do grupo para proprietários de grupos selecionados </t>
+          <t>Consentimento &amp; Permissões: Permitir o consentimento do usuário para aplicativos de editores verificados</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,18 +4714,18 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Domínios personalizados</t>
+          <t>Aplicações Corporativas</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Apenas domínios validados de clientes são registrados</t>
+          <t xml:space="preserve">Consentimento &amp; Permissões: Permitir o consentimento do proprietário do grupo para proprietários de grupos selecionados </t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Redefinição de senha</t>
+          <t>Domínios personalizados</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Requisito de política de redefinição de senha de autoatendimento verificado em conformidade.</t>
+          <t>Apenas domínios validados de clientes são registrados</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4811,13 +4811,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Definir o número de dias antes que os usuários sejam solicitados a re-confirmar informações de autenticação não está definido como zero</t>
+          <t>Requisito de política de redefinição de senha de autoatendimento verificado em conformidade.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Definir o número de métodos necessários para redefinir a senha são selecionados</t>
+          <t>Definir o número de dias antes que os usuários sejam solicitados a re-confirmar informações de autenticação não está definido como zero</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Configuração do usuário</t>
+          <t>Redefinição de senha</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Desativar 'Os usuários podem registrar aplicativos'</t>
+          <t>Definir o número de métodos necessários para redefinir a senha são selecionados</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restringir o acesso ao portal Administrativo (portal.azure.com) apenas aos administradores</t>
+          <t>Desativar 'Os usuários podem registrar aplicativos'</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Desativar a 'conexão de conta do LinkedIn'</t>
+          <t>Restringir o acesso ao portal Administrativo (portal.azure.com) apenas aos administradores</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Configurações de diagnóstico</t>
+          <t>Configuração do usuário</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Ativado e enviado para o espaço de trabalho Log Analytics com o Sentinel</t>
+          <t>Desativar a 'conexão de conta do LinkedIn'</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM ativado</t>
+          <t>Configurações de diagnóstico</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidade privilegiado ativado</t>
+          <t>Ativado e enviado para o espaço de trabalho Log Analytics com o Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implementar o acesso 'just in time' (JIT) para reduzir ainda mais o tempo de exposição de contas privilegiadas (reduzir o acesso permanente)</t>
+          <t>Gerenciamento de identidade privilegiado ativado</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>PIM ativado</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configure políticas de acesso condicional / Controles de Acesso</t>
+          <t>Implementar o acesso 'just in time' (JIT) para reduzir ainda mais o tempo de exposição de contas privilegiadas (reduzir o acesso permanente)</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5225,13 +5225,13 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Condições: Locais Restritos</t>
+          <t>Configure políticas de acesso condicional / Controles de Acesso</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: MFA ativado para todos os usuários</t>
+          <t>Condições: Locais Restritos</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5317,13 +5317,13 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: Exigir MFA para administradores</t>
+          <t>Controles de acesso: MFA ativado para todos os usuários</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5363,13 +5363,13 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controles de acesso: Exigir MFA para gerenciamento do Azure </t>
+          <t>Controles de acesso: Exigir MFA para administradores</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: bloqueie protocolos legados</t>
+          <t xml:space="preserve">Controles de acesso: Exigir MFA para gerenciamento do Azure </t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: Exigir que os dispositivos sejam marcados como compatíveis</t>
+          <t>Controles de acesso: bloqueie protocolos legados</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5496,22 +5496,18 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Usuários convidados</t>
+          <t>Políticas de acesso condicional</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Existe uma política para rastrear contas de usuários de hóspedes (ou seja, uso/exclusão/desativação)?</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="inlineStr">
-        <is>
-          <t>Política documentada pelo cliente</t>
-        </is>
-      </c>
+          <t>Controles de acesso: Exigir que os dispositivos sejam marcados como compatíveis</t>
+        </is>
+      </c>
+      <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5522,7 +5518,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5530,7 +5526,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5546,18 +5542,22 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Pontuação segura de identidade</t>
+          <t>Usuários convidados</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Implementar o Score seguro de identidade com base nas melhores práticas do seu setor</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="n"/>
+          <t>Existe uma política para rastrear contas de usuários de hóspedes (ou seja, uso/exclusão/desativação)?</t>
+        </is>
+      </c>
+      <c r="D104" s="22" t="inlineStr">
+        <is>
+          <t>Política documentada pelo cliente</t>
+        </is>
+      </c>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
+          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
+          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Quebrar contas de vidro</t>
+          <t>Pontuação segura de identidade</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Pelo menos duas contas de vidro de quebra foram criadas e a política em torno de seu uso existe</t>
+          <t>Implementar o Score seguro de identidade com base nas melhores práticas do seu setor</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,23 +5633,23 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Quebrar contas de vidro</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso VM aproveitando a política do Azure</t>
+          <t>Pelo menos duas contas de vidro de quebra foram criadas e a política em torno de seu uso existe</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5689,13 +5689,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduza a variabilidade na configuração e implantação de VMs aproveitando modelos</t>
+          <t>Controle de acesso VM aproveitando a política do Azure</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0a77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Garantir acesso privilegiado para implantar VMS reduzindo quem tem acesso a Recursos através da Governança</t>
+          <t>Reduza a variabilidade na configuração e implantação de VMs aproveitando modelos</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>0a77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use vários VMs para suas cargas de trabalho para melhor disponibilidade </t>
+          <t>Garantir acesso privilegiado para implantar VMS reduzindo quem tem acesso a Recursos através da Governança</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implantar e testar uma solução de recuperação de desastres </t>
+          <t xml:space="preserve">Use vários VMs para suas cargas de trabalho para melhor disponibilidade </t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Conjuntos de Availabilty</t>
+          <t xml:space="preserve">Implantar e testar uma solução de recuperação de desastres </t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidade</t>
+          <t>Conjuntos de Availabilty</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tolerância a falhas regionais </t>
+          <t>Zonas de disponibilidade</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6005,18 +6005,18 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Proteger contra malware</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Instalar soluções antimalware</t>
+          <t xml:space="preserve">Tolerância a falhas regionais </t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integre a solução antimalware com o Security Center</t>
+          <t>Instalar soluções antimalware</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atualizações vm</t>
+          <t>Proteger contra malware</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Mantenha os VMs atualizados usando o Gerenciamento de Atualizações com automação do Azure</t>
+          <t>Integre a solução antimalware com o Security Center</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que as imagens do Windows para implantação tenham o nível mais recente de atualizações </t>
+          <t>Mantenha os VMs atualizados usando o Gerenciamento de Atualizações com automação do Azure</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6191,13 +6191,13 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Aplique rapidamente atualizações de segurança para VMs usando o Microsoft Defender for Cloud</t>
+          <t xml:space="preserve">Certifique-se de que as imagens do Windows para implantação tenham o nível mais recente de atualizações </t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Criptografe seus VHDs</t>
+          <t>Gerenciar atualizações vm</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Habilite a criptografia em seus VMs</t>
+          <t>Aplique rapidamente atualizações de segurança para VMs usando o Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adicione a chave de criptografia chave (KEK) para adicionar camada de segurança para criptografia </t>
+          <t>Habilite a criptografia em seus VMs</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Tire um instantâneo de discos antes da criptografia para fins de reversão</t>
+          <t xml:space="preserve">Adicione a chave de criptografia chave (KEK) para adicionar camada de segurança para criptografia </t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6369,18 +6369,18 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t>Criptografe seus VHDs</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garantir que apenas o grupo central de rede tenha permissões para recursos de rede </t>
+          <t>Tire um instantâneo de discos antes da criptografia para fins de reversão</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
       <c r="E122" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223e138</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>VMs expostos de identidade e correção que permitem o acesso a partir de adicionas IP de origem 'ANY'</t>
+          <t xml:space="preserve">Garantir que apenas o grupo central de rede tenha permissões para recursos de rede </t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restringir portas de gerenciamento (RDP, SSH) usando acesso just-in-time</t>
+          <t>VMs expostos de identidade e correção que permitem o acesso a partir de adicionas IP de origem 'ANY'</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Remova o acesso interno e implemente servidores de salto para RDP</t>
+          <t>Restringir portas de gerenciamento (RDP, SSH) usando acesso just-in-time</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Remova o login direto em servidores usando RDP/SSH da internet e implemente VPN ou rota expressa</t>
+          <t>Remova o acesso interno e implemente servidores de salto para RDP</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Aproveite o Azure Bastion como seu corretor RDP/SSH para maior segurança e redução de pegada</t>
+          <t>Remova o login direto em servidores usando RDP/SSH da internet e implemente VPN ou rota expressa</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6638,17 +6638,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança VM</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitetura </t>
+          <t xml:space="preserve">Restringir a conexão direta à internet </t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Todos os inquilinos contêm sentinela habilitado em pelo menos um espaço de trabalho Log Analytics</t>
+          <t>Aproveite o Azure Bastion como seu corretor RDP/SSH para maior segurança e redução de pegada</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Cliente entende arquitetura Sentinela</t>
+          <t>Todos os inquilinos contêm sentinela habilitado em pelo menos um espaço de trabalho Log Analytics</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6738,13 +6738,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>O cliente sabe como monitorar incidentes em várias instâncias do Sentinel</t>
+          <t>Cliente entende arquitetura Sentinela</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t xml:space="preserve">Arquitetura </t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Sem Incidentes abertos mais de 24 horas</t>
+          <t>O cliente sabe como monitorar incidentes em várias instâncias do Sentinel</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
+          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Notícias e Guias</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>O cliente foi mostrado na guia Notícias &amp; Guias</t>
+          <t>Sem Incidentes abertos mais de 24 horas</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Notícias e Guias</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Configurado pelo UEBA (Sentinel/Configurações/Configurações/Configurar UEBA)</t>
+          <t>O cliente foi mostrado na guia Notícias &amp; Guias</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,18 +6913,18 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo do Azure em programas configurados e 'Último Log Recebido' hoje</t>
+          <t>Configurado pelo UEBA (Sentinel/Configurações/Configurações/Configurar UEBA)</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
       <c r="E134" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>A proteção de identidade do Diretório Ativo do Azure é configurada e 'Último Registro Recebido' é apresentado hoje</t>
+          <t>Diretório Ativo do Azure em programas configurados e 'Último Log Recebido' hoje</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>A Atividade do Azure está configurada e 'Último Registro Recebido' é apresentado hoje</t>
+          <t>A proteção de identidade do Diretório Ativo do Azure é configurada e 'Último Registro Recebido' é apresentado hoje</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender é configurado e 'Último Registro Recebido' mostra hoje</t>
+          <t>A Atividade do Azure está configurada e 'Último Registro Recebido' é apresentado hoje</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7077,7 +7077,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>O Azure Firewall está configurado e o 'Último Log Recebido' é apresentado hoje</t>
+          <t>Azure Defender é configurado e 'Último Registro Recebido' mostra hoje</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7122,7 +7122,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>O Firewall do Windows está configurado e o 'Último Log Recebido' é apresentado hoje</t>
+          <t>O Azure Firewall está configurado e o 'Último Log Recebido' é apresentado hoje</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7167,7 +7167,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Eventos de segurança são configurados com os shows ama e 'Último Log Recebido' hoje</t>
+          <t>O Firewall do Windows está configurado e o 'Último Log Recebido' é apresentado hoje</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7212,7 +7212,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Eventos de Segurança - verifique se os computadores do Azure estão conectados e enviando dados para o espaço de trabalho</t>
+          <t>Eventos de segurança são configurados com os shows ama e 'Último Log Recebido' hoje</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Eventos de Segurança - verifique se computadores não-Azure estão conectados e enviando dados para o espaço de trabalho</t>
+          <t>Eventos de Segurança - verifique se os computadores do Azure estão conectados e enviando dados para o espaço de trabalho</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conector para AWS</t>
+          <t>Eventos de Segurança - verifique se computadores não-Azure estão conectados e enviando dados para o espaço de trabalho</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7347,7 +7347,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Conector para GCP</t>
+          <t>Conector para AWS</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7392,7 +7392,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Regras de análise</t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O cliente habilitou as regras de análise e configurou incidentes </t>
+          <t>Conector para GCP</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7453,18 +7453,18 @@
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Configurações</t>
+          <t>Regras de análise</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>O cliente não tem um limite diário habilitado</t>
+          <t xml:space="preserve">O cliente habilitou as regras de análise e configurou incidentes </t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,23 +7493,23 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Configurações</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium implantado</t>
+          <t>O cliente não tem um limite diário habilitado</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
       <c r="E147" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/overview</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Tunning quad zero/force ativado através do Firewall Azure</t>
+          <t>Azure Firewall Premium implantado</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
+          <t>https://docs.microsoft.com/azure/firewall/overview</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7588,18 +7588,18 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Configuração</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC definido para habilitar apenas usuários autorizados</t>
+          <t>Tunning quad zero/force ativado através do Firewall Azure</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Configurações de diagnóstico</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnósticos ativados e envio de métricas para um espaço de trabalho do Log Analytics </t>
+          <t>RBAC definido para habilitar apenas usuários autorizados</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7678,18 +7678,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Configurações de diagnóstico</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Hubs e redes virtuais são protegidos ou conectados através do Firewall Premium</t>
+          <t xml:space="preserve">Diagnósticos ativados e envio de métricas para um espaço de trabalho do Log Analytics </t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Política: Os controles de acesso são configurados (RBAC)</t>
+          <t>Hubs e redes virtuais são protegidos ou conectados através do Firewall Premium</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Política: A política dos pais está configurada </t>
+          <t>Política: Os controles de acesso são configurados (RBAC)</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Política: As coleções de regras são definidas</t>
+          <t xml:space="preserve">Política: A política dos pais está configurada </t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Política: As políticas de DNAT são definidas</t>
+          <t>Política: As coleções de regras são definidas</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -7887,7 +7887,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Política: As regras da rede são definidas</t>
+          <t>Política: As políticas de DNAT são definidas</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7932,7 +7932,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Política: As regras de aplicação são definidas</t>
+          <t>Política: As regras da rede são definidas</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7998,13 +7998,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Recurso compreendido e aplicado ou não aplicado</t>
+          <t>Política: As regras de aplicação são definidas</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Inteligência de Ameaças: Definir para Alertar e Negar</t>
+          <t>DNS: Recurso compreendido e aplicado ou não aplicado</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Inteligência de Ameaças: Lista permitida (justificar se eles estão sendo usados - ou seja, desempenho)</t>
+          <t>Inteligência de Ameaças: Definir para Alertar e Negar</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8112,7 +8112,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS ativado</t>
+          <t>Inteligência de Ameaças: Lista permitida (justificar se eles estão sendo usados - ou seja, desempenho)</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
+          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS ativado</t>
+          <t>TLS ativado</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configurado </t>
+          <t>IDPS ativado</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8263,18 +8263,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Proteção DDOS</t>
+          <t>Gerente de Firewall</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP's públicos do Firewall</t>
+          <t xml:space="preserve">SNAT: Configurado </t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8301,109 +8301,315 @@
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Azure Firewall</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Proteção DDOS</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Habilitado para IP's públicos do Firewall</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -10461,8 +10667,14 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F166" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10477,7 +10689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
@@ -10742,6 +10954,13 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Application Deployment</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/spreadsheet/security_checklist.pt.xlsx
+++ b/spreadsheet/security_checklist.pt.xlsx
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/faq-data-collection-agents</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os serviços do Defender estão todos habilitados </t>
+          <t>Os recursos de segurança aprimorados do Defender for Cloud estão todos habilitados</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -2813,7 +2813,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>VNet Private Endpoings estão em uso para permitir acesso a ambientes locais, não existem pontos finais públicos legados</t>
+          <t>Os Endpoints Privados VNet estão em uso para permitir o acesso de ambientes locais, não existem pontos finais públicos legados</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>VNet Kubernetes - coberto por Centro de Segurança</t>
+          <t>Tráfego seguro entre pods usando políticas de rede no Azure Kubernetes Service (AKS)</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3273,7 +3273,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Alcance Global</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>O cliente está usando a Global Reach para se conectar privadamente a serviços em execução em outras regiões</t>
+          <t>VWAN RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3319,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>O cliente VWAN está usando o Secure Hub ou firewall externo para rotear e monitorar o tráfego.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3364,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>O cliente VWAN está usando o Secure Hub ou firewall externo para rotear e monitorar o tráfego.</t>
+          <t>AppGW RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3409,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+          <t xml:space="preserve">AppGW Todos os serviços web voltados externos estão afer gateways de aplicativos com WAF ativado </t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3454,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos os serviços web voltados externos estão afer gateways de aplicativos com WAF ativado </t>
+          <t xml:space="preserve">AppGW Todos os serviços internos voltados para a Web estão behing Application Gateways com WAF ativado </t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3506,7 +3506,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos os serviços internos voltados para a Web estão behing Application Gateways com WAF ativado </t>
+          <t>AppGW - Frente externa tem TLS/SSL ativado e redireciona todo o tráfego para 443 (sem tráfego na porta 80)</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3544,14 +3544,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>FrontDoor</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>AppGW - Frente externa tem TLS/SSL ativado e redireciona todo o tráfego para 443 (sem tráfego na porta 80)</t>
+          <t>O FRONT Door RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3589,14 +3589,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>O FRONT Door RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>Porta da Frente está associada a uma política WAF</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3634,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente está associada a uma política WAF</t>
+          <t>A política TLS/SSL da porta frontal está configurada</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3679,7 +3679,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3687,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>A política TLS/SSL da porta frontal está configurada</t>
+          <t>Porta de redirecionamento da porta 80 para porta 443 está configurada (ouvintes)</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3725,7 +3725,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3733,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Porta de redirecionamento da porta 80 para porta 443 está configurada (ouvintes)</t>
+          <t>Os registros de diagnósticos da Porta frontal enviam o ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog para o Sentinel LAW</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3771,7 +3771,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3779,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Proteção DDOS</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Os registros de diagnósticos da Porta frontal enviam o ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog para o Sentinel LAW</t>
+          <t>Habilitado para IP's públicos do Firewall (todos os IPs públicos)</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3817,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3835,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Proteção DDOS</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP's públicos do Firewall (todos os IPs públicos)</t>
+          <t>Estabeleça um único diretório empresarial para gerenciar identidades de funcionários em tempo integral e recursos corporativos.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3870,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um único diretório empresarial para gerenciar identidades de funcionários em tempo integral e recursos corporativos.</t>
+          <t>Sincronize sua identidade na nuvem com seus sistemas de identidade existentes.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -3908,7 +3908,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3916,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Sincronize sua identidade na nuvem com seus sistemas de identidade existentes.</t>
+          <t>Use serviços de identidade na nuvem para hospedar contas não-funcionários, como fornecedores, parceiros e clientes, em vez de incluí-las em seu diretório local.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3954,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3962,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Use serviços de identidade na nuvem para hospedar contas não-funcionários, como fornecedores, parceiros e clientes, em vez de incluí-las em seu diretório local.</t>
+          <t>Desativar protocolos legados inseguros para serviços voltados à internet.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4000,7 +4000,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4008,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Desativar protocolos legados inseguros para serviços voltados à internet.</t>
+          <t>Habilitar um único login</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4046,7 +4046,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4054,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Habilitar um único login</t>
+          <t>Não sincronize contas com o maior acesso privilegiado aos recursos locais à medida que você sincroniza seus sistemas de identidade corporativa com diretórios em nuvem.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4092,7 +4092,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Não sincronize contas com o maior acesso privilegiado aos recursos locais à medida que você sincroniza seus sistemas de identidade corporativa com diretórios em nuvem.</t>
+          <t>Limitar o número de administradores globais a menos de 5</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4138,7 +4138,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4146,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Limitar o número de administradores globais a menos de 5</t>
+          <t>Use grupos para atribuições de papéis do Azure AD e delegue a atribuição de função</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4184,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use grupos para atribuições de papéis do Azure AD e delegue a atribuição de função</t>
+          <t>Certifique-se de que todos os administradores de impacto críticos sejam gerenciados pelo diretório corporativo para acompanhar a aplicação da política organizacional.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4230,7 +4230,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4238,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os administradores de impacto críticos sejam gerenciados pelo diretório corporativo para acompanhar a aplicação da política organizacional.</t>
+          <t>Configure revisões de acesso recorrentes para revogar permissões não precisas ao longo do tempo</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4276,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4284,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Configure revisões de acesso recorrentes para revogar permissões não precisas ao longo do tempo</t>
+          <t>Certifique-se de que os administradores de impacto crítico usem uma estação de trabalho com proteções de segurança elevadas e monitoramento</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4346,18 +4346,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Identidades Externas</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os administradores de impacto crítico usem uma estação de trabalho com proteções de segurança elevadas e monitoramento</t>
+          <t>Provedores de identidade: Verifique se são conhecidos os provedores de identidade externos</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Provedores de identidade: Verifique se são conhecidos os provedores de identidade externos</t>
+          <t>Configurações de colaboração externa: o acesso do usuário convidado definido para 'Acesso ao usuário convidado é restrito?'</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: o acesso do usuário convidado definido para 'Acesso ao usuário convidado é restrito?'</t>
+          <t>Configurações de colaboração externa: Configurações de convite de hóspedes definidas como 'Somente usuários atribuídos a funções específicas de administração'</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: Configurações de convite de hóspedes definidas como 'Somente usuários atribuídos a funções específicas de administração'</t>
+          <t xml:space="preserve">Configurações de colaboração externa: habilite o autoatendimento do hóspede por meio de fluxos definidos como 'Desativados' </t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configurações de colaboração externa: habilite o autoatendimento do hóspede por meio de fluxos definidos como 'Desativados' </t>
+          <t>Configurações de colaboração externa: restrições de colaboração definidas como 'Permitir convites para os domínios especificados'</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4581,13 +4581,13 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: restrições de colaboração definidas como 'Permitir convites para os domínios especificados'</t>
+          <t>Avaliações de acesso: Habilitadas para todos os grupos</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Aplicações Corporativas</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Avaliações de acesso: Habilitadas para todos os grupos</t>
+          <t>Consentimento &amp; Permissões: Permitir o consentimento do usuário para aplicativos de editores verificados</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Consentimento &amp; Permissões: Permitir o consentimento do usuário para aplicativos de editores verificados</t>
+          <t xml:space="preserve">Consentimento &amp; Permissões: Permitir o consentimento do proprietário do grupo para proprietários de grupos selecionados </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,18 +4714,18 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Aplicações Corporativas</t>
+          <t>Domínios personalizados</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consentimento &amp; Permissões: Permitir o consentimento do proprietário do grupo para proprietários de grupos selecionados </t>
+          <t>Apenas domínios validados de clientes são registrados</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Domínios personalizados</t>
+          <t>Redefinição de senha</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Apenas domínios validados de clientes são registrados</t>
+          <t>Requisito de política de redefinição de senha de autoatendimento verificado em conformidade.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4811,13 +4811,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Requisito de política de redefinição de senha de autoatendimento verificado em conformidade.</t>
+          <t>Definir o número de dias antes que os usuários sejam solicitados a re-confirmar informações de autenticação não está definido como zero</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Definir o número de dias antes que os usuários sejam solicitados a re-confirmar informações de autenticação não está definido como zero</t>
+          <t>Definir o número de métodos necessários para redefinir a senha são selecionados</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Redefinição de senha</t>
+          <t>Configuração do usuário</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Definir o número de métodos necessários para redefinir a senha são selecionados</t>
+          <t>Desativar 'Os usuários podem registrar aplicativos'</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Desativar 'Os usuários podem registrar aplicativos'</t>
+          <t>Restringir o acesso ao portal Administrativo (portal.azure.com) apenas aos administradores</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Restringir o acesso ao portal Administrativo (portal.azure.com) apenas aos administradores</t>
+          <t>Desativar a 'conexão de conta do LinkedIn'</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Configuração do usuário</t>
+          <t>Configurações de diagnóstico</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Desativar a 'conexão de conta do LinkedIn'</t>
+          <t>Ativado e enviado para o espaço de trabalho Log Analytics com o Sentinel</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Configurações de diagnóstico</t>
+          <t>PIM ativado</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Ativado e enviado para o espaço de trabalho Log Analytics com o Sentinel</t>
+          <t>Gerenciamento de identidade privilegiado ativado</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidade privilegiado ativado</t>
+          <t>Implementar o acesso 'just in time' (JIT) para reduzir ainda mais o tempo de exposição de contas privilegiadas (reduzir o acesso permanente)</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>PIM ativado</t>
+          <t>Políticas de acesso condicional</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Implementar o acesso 'just in time' (JIT) para reduzir ainda mais o tempo de exposição de contas privilegiadas (reduzir o acesso permanente)</t>
+          <t>Configure políticas de acesso condicional / Controles de Acesso</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5225,13 +5225,13 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Configure políticas de acesso condicional / Controles de Acesso</t>
+          <t>Condições: Locais Restritos</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Condições: Locais Restritos</t>
+          <t>Controles de acesso: MFA ativado para todos os usuários</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5317,13 +5317,13 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: MFA ativado para todos os usuários</t>
+          <t>Controles de acesso: Exigir MFA para administradores</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5363,13 +5363,13 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: Exigir MFA para administradores</t>
+          <t xml:space="preserve">Controles de acesso: Exigir MFA para gerenciamento do Azure </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controles de acesso: Exigir MFA para gerenciamento do Azure </t>
+          <t>Controles de acesso: bloqueie protocolos legados</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: bloqueie protocolos legados</t>
+          <t>Controles de acesso: Exigir que os dispositivos sejam marcados como compatíveis</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5496,18 +5496,22 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Usuários convidados</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: Exigir que os dispositivos sejam marcados como compatíveis</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="n"/>
+          <t>Existe uma política para rastrear contas de usuários de hóspedes (ou seja, uso/exclusão/desativação)?</t>
+        </is>
+      </c>
+      <c r="D103" s="22" t="inlineStr">
+        <is>
+          <t>Política documentada pelo cliente</t>
+        </is>
+      </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5518,7 +5522,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5526,7 +5530,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5542,22 +5546,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Usuários convidados</t>
+          <t>Pontuação segura de identidade</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Existe uma política para rastrear contas de usuários de hóspedes (ou seja, uso/exclusão/desativação)?</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="inlineStr">
-        <is>
-          <t>Política documentada pelo cliente</t>
-        </is>
-      </c>
+          <t>Implementar o Score seguro de identidade com base nas melhores práticas do seu setor</t>
+        </is>
+      </c>
+      <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
+          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Pontuação segura de identidade</t>
+          <t>Quebrar contas de vidro</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Implementar o Score seguro de identidade com base nas melhores práticas do seu setor</t>
+          <t>Pelo menos duas contas de vidro de quebra foram criadas e a política em torno de seu uso existe</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,23 +5633,23 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Verificações de segurança VM</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Quebrar contas de vidro</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Pelo menos duas contas de vidro de quebra foram criadas e a política em torno de seu uso existe</t>
+          <t>Controle de acesso VM aproveitando a política do Azure</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5689,13 +5689,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso VM aproveitando a política do Azure</t>
+          <t>Reduza a variabilidade na configuração e implantação de VMs aproveitando modelos</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>0a77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Reduza a variabilidade na configuração e implantação de VMs aproveitando modelos</t>
+          <t>Garantir acesso privilegiado para implantar VMS reduzindo quem tem acesso a Recursos através da Governança</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>0a77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Garantir acesso privilegiado para implantar VMS reduzindo quem tem acesso a Recursos através da Governança</t>
+          <t xml:space="preserve">Use vários VMs para suas cargas de trabalho para melhor disponibilidade </t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use vários VMs para suas cargas de trabalho para melhor disponibilidade </t>
+          <t xml:space="preserve">Implantar e testar uma solução de recuperação de desastres </t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implantar e testar uma solução de recuperação de desastres </t>
+          <t>Conjuntos de Availabilty</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Conjuntos de Availabilty</t>
+          <t>Zonas de disponibilidade</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidade</t>
+          <t xml:space="preserve">Tolerância a falhas regionais </t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6005,18 +6005,18 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Proteger contra malware</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tolerância a falhas regionais </t>
+          <t>Instalar soluções antimalware</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Instalar soluções antimalware</t>
+          <t>Integre a solução antimalware com o Security Center</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Proteger contra malware</t>
+          <t>Gerenciar atualizações vm</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Integre a solução antimalware com o Security Center</t>
+          <t>Mantenha os VMs atualizados usando o Gerenciamento de Atualizações com automação do Azure</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Mantenha os VMs atualizados usando o Gerenciamento de Atualizações com automação do Azure</t>
+          <t xml:space="preserve">Certifique-se de que as imagens do Windows para implantação tenham o nível mais recente de atualizações </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6191,13 +6191,13 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que as imagens do Windows para implantação tenham o nível mais recente de atualizações </t>
+          <t>Aplique rapidamente atualizações de segurança para VMs usando o Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atualizações vm</t>
+          <t>Criptografe seus VHDs</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Aplique rapidamente atualizações de segurança para VMs usando o Microsoft Defender for Cloud</t>
+          <t>Habilite a criptografia em seus VMs</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Habilite a criptografia em seus VMs</t>
+          <t xml:space="preserve">Adicione a chave de criptografia chave (KEK) para adicionar camada de segurança para criptografia </t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adicione a chave de criptografia chave (KEK) para adicionar camada de segurança para criptografia </t>
+          <t>Tire um instantâneo de discos antes da criptografia para fins de reversão</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6369,18 +6369,18 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Criptografe seus VHDs</t>
+          <t xml:space="preserve">Restringir a conexão direta à internet </t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Tire um instantâneo de discos antes da criptografia para fins de reversão</t>
+          <t xml:space="preserve">Garantir que apenas o grupo central de rede tenha permissões para recursos de rede </t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
       <c r="E122" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garantir que apenas o grupo central de rede tenha permissões para recursos de rede </t>
+          <t>VMs expostos de identidade e correção que permitem o acesso a partir de adicionas IP de origem 'ANY'</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223e138</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>VMs expostos de identidade e correção que permitem o acesso a partir de adicionas IP de origem 'ANY'</t>
+          <t>Restringir portas de gerenciamento (RDP, SSH) usando acesso just-in-time</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Restringir portas de gerenciamento (RDP, SSH) usando acesso just-in-time</t>
+          <t>Remova o acesso à internet e implemente servidores de salto para RDP</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Remova o acesso interno e implemente servidores de salto para RDP</t>
+          <t>Remova o login direto em servidores usando RDP/SSH da internet e implemente VPN ou rota expressa</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Remova o login direto em servidores usando RDP/SSH da internet e implemente VPN ou rota expressa</t>
+          <t>Aproveite o Azure Bastion como seu corretor RDP/SSH para maior segurança e redução de pegada</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6638,17 +6638,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t xml:space="preserve">Arquitetura </t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Aproveite o Azure Bastion como seu corretor RDP/SSH para maior segurança e redução de pegada</t>
+          <t>Todos os inquilinos contêm sentinela habilitado em pelo menos um espaço de trabalho Log Analytics</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Todos os inquilinos contêm sentinela habilitado em pelo menos um espaço de trabalho Log Analytics</t>
+          <t>Cliente entende arquitetura Sentinela</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6738,13 +6738,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Cliente entende arquitetura Sentinela</t>
+          <t>O cliente sabe como monitorar incidentes em várias instâncias do Sentinel</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitetura </t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>O cliente sabe como monitorar incidentes em várias instâncias do Sentinel</t>
+          <t>Sem Incidentes abertos mais de 24 horas</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Notícias e Guias</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Sem Incidentes abertos mais de 24 horas</t>
+          <t>O cliente foi mostrado na guia Notícias &amp; Guias</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>Notícias e Guias</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>O cliente foi mostrado na guia Notícias &amp; Guias</t>
+          <t>Configurado pelo UEBA (Sentinel/Configurações/Configurações/Configurar UEBA)</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,18 +6913,18 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Configurado pelo UEBA (Sentinel/Configurações/Configurações/Configurar UEBA)</t>
+          <t>Diretório Ativo do Azure em programas configurados e 'Último Log Recebido' hoje</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
       <c r="E134" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo do Azure em programas configurados e 'Último Log Recebido' hoje</t>
+          <t>A proteção de identidade do Diretório Ativo do Azure é configurada e 'Último Registro Recebido' é apresentado hoje</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>A proteção de identidade do Diretório Ativo do Azure é configurada e 'Último Registro Recebido' é apresentado hoje</t>
+          <t>A Atividade do Azure está configurada e 'Último Registro Recebido' é apresentado hoje</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>A Atividade do Azure está configurada e 'Último Registro Recebido' é apresentado hoje</t>
+          <t>Microsoft Defender for Cloud é configurado e 'Último Log Recebido' mostra hoje</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender é configurado e 'Último Registro Recebido' mostra hoje</t>
+          <t>O Azure Firewall está configurado e o 'Último Log Recebido' é apresentado hoje</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>O Azure Firewall está configurado e o 'Último Log Recebido' é apresentado hoje</t>
+          <t>O Firewall do Windows está configurado e o 'Último Log Recebido' é apresentado hoje</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>O Firewall do Windows está configurado e o 'Último Log Recebido' é apresentado hoje</t>
+          <t>Eventos de segurança são configurados com os shows ama e 'Último Log Recebido' hoje</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Eventos de segurança são configurados com os shows ama e 'Último Log Recebido' hoje</t>
+          <t>Eventos de Segurança - verifique se os computadores do Azure estão conectados e enviando dados para o espaço de trabalho</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Eventos de Segurança - verifique se os computadores do Azure estão conectados e enviando dados para o espaço de trabalho</t>
+          <t>Eventos de Segurança - verifique se computadores não-Azure estão conectados e enviando dados para o espaço de trabalho</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Eventos de Segurança - verifique se computadores não-Azure estão conectados e enviando dados para o espaço de trabalho</t>
+          <t>Conector para AWS</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Conector para AWS</t>
+          <t>Conector para GCP</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7392,7 +7392,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Regras de análise</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Conector para GCP</t>
+          <t xml:space="preserve">O cliente habilitou as regras de análise e configurou incidentes </t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7453,18 +7453,18 @@
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Regras de análise</t>
+          <t>Configurações</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O cliente habilitou as regras de análise e configurou incidentes </t>
+          <t>O cliente não tem um limite diário habilitado</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,23 +7493,23 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configurações</t>
+          <t>Configuração</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>O cliente não tem um limite diário habilitado</t>
+          <t>Azure Firewall Premium implantado</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
       <c r="E147" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium implantado</t>
+          <t>Tunning quad zero/force ativado através do Firewall Azure</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7588,18 +7588,18 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Tunning quad zero/force ativado através do Firewall Azure</t>
+          <t>RBAC definido para habilitar apenas usuários autorizados</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Configurações de diagnóstico</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>RBAC definido para habilitar apenas usuários autorizados</t>
+          <t xml:space="preserve">Diagnósticos ativados e envio de métricas para um espaço de trabalho do Log Analytics </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7678,18 +7678,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Configurações de diagnóstico</t>
+          <t>Gerente de Firewall</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnósticos ativados e envio de métricas para um espaço de trabalho do Log Analytics </t>
+          <t>Hubs e redes virtuais são protegidos ou conectados através do Firewall Premium</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Hubs e redes virtuais são protegidos ou conectados através do Firewall Premium</t>
+          <t>Política: Os controles de acesso são configurados (RBAC)</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Política: Os controles de acesso são configurados (RBAC)</t>
+          <t xml:space="preserve">Política: A política dos pais está configurada </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Política: A política dos pais está configurada </t>
+          <t>Política: As coleções de regras são definidas</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Política: As coleções de regras são definidas</t>
+          <t>Política: As políticas de DNAT são definidas</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -7887,7 +7887,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Política: As políticas de DNAT são definidas</t>
+          <t>Política: As regras da rede são definidas</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7932,7 +7932,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Política: As regras da rede são definidas</t>
+          <t>Política: As regras de aplicação são definidas</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7998,13 +7998,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Política: As regras de aplicação são definidas</t>
+          <t>DNS: Recurso compreendido e aplicado ou não aplicado</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>DNS: Recurso compreendido e aplicado ou não aplicado</t>
+          <t>Inteligência de Ameaças: Definir para Alertar e Negar</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Inteligência de Ameaças: Definir para Alertar e Negar</t>
+          <t>Inteligência de Ameaças: Lista permitida (justificar se eles estão sendo usados - ou seja, desempenho)</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Inteligência de Ameaças: Lista permitida (justificar se eles estão sendo usados - ou seja, desempenho)</t>
+          <t>TLS ativado</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>TLS ativado</t>
+          <t>IDPS ativado</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>IDPS ativado</t>
+          <t xml:space="preserve">SNAT: Configurado </t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8263,18 +8263,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Proteção DDOS</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configurado </t>
+          <t>Habilitado para IP's públicos do Firewall</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8303,41 +8303,41 @@
     <row r="165" ht="16.5" customHeight="1" s="13">
       <c r="A165" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>Proteção DDOS</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP's públicos do Firewall</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -10667,14 +10667,26 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F166" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/security_checklist.pt.xlsx
+++ b/spreadsheet/security_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Lista de verificação de revisão de segurança do Azure</t>
+          <t>Azure Security Review Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Centro de segurança/Defender habilita em todas as assinaturas</t>
+          <t>RBAC definido para habilitar somente usuários autorizados</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Configuração</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Centro de segurança/Defender ativado em todos os espaços de trabalho do Log Analytics</t>
+          <t>Firewall do Azure Premium implantado</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Configuração</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Coleta de dados definida como 'Comum'</t>
+          <t>Ajuste quádruplo zero/força habilitado por meio do Firewall do Azure</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Proteção DDOS</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Os recursos de segurança aprimorados do Defender for Cloud estão todos habilitados</t>
+          <t>Habilitado para IPs públicos do Firewall</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Configurações de diagnóstico</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Provisionamento automático habilitado de acordo com a política da empresa (a política deve existir)</t>
+          <t xml:space="preserve">Diagnósticos habilitados e envio de métricas para um espaço de trabalho do Log Analytics </t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Notificações por e-mail habilitadas de acordo com a política da empresa (a política deve existir)</t>
+          <t>Hubs e redes virtuais são protegidos ou conectados através do Firewall Premium</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1371,23 +1371,23 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ativar as opções de integrações são selecionadas </t>
+          <t>Política: Os controles de acesso estão configurados (RBAC)</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>A integração CI/CD está configurada</t>
+          <t xml:space="preserve">Política: A política pai está configurada </t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>5b7bae4-4th-45e8-a79e-2e86667313c5</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>O 'Event Hub' de exportação contínua é ativado se usar o SIEM de terceiros</t>
+          <t>Política: as coleções de regras são definidas</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>O 'Log Analytics Workspace' de exportação contínua é ativado se não estiver usando o Azure Sentinel</t>
+          <t>Política: As políticas do DNAT são definidas</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Conector de nuvem habilitado para AWS</t>
+          <t>Política: As regras de rede são definidas</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Conector de nuvem habilitado para GCP</t>
+          <t>Política: As regras de aplicativo são definidas</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Se usar o proxy do aplicativo Azure AD, considere integrar-se ao Microsoft Defender for Cloud Apps para monitorar o acesso de aplicativos em tempo real e aplicar controles de segurança avançados.</t>
+          <t>DNS: Recurso compreendido e aplicado ou não aplicado</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Recomendações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Todas as recomendações remediadas ou desativadas, se não forem necessárias.</t>
+          <t>Inteligência de Ameaças: Definir como Alertar e Negar</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,24 +1739,20 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Recomendações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Pontuação de segurança&gt;70%</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>A meta mínima da Microsoft para todos os clientes é de 70%</t>
-        </is>
-      </c>
+          <t>Inteligência de Ameaças: Lista de permissões (justifique se eles estão sendo usados - ou seja, desempenho)</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1770,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1789,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Alertas de secuidade</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Os alertas de segurança contêm apenas aqueles gerados nas últimas 24 horas (remediar ou desativar alertas de segurança mais antigos)</t>
+          <t>TLS habilitado</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1816,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1835,23 +1831,23 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Se a exportação contínua estiver ativada, as pastas de trabalho padrão são publicadas no painel de segurança personalizado</t>
+          <t>IDPS habilitado</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Comunidade</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>O cliente está ciente do valor da página 'Comunidade' e tem uma cadência regular configurada para revisar</t>
+          <t xml:space="preserve">SNAT: Configurado </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,24 +1923,20 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Pontuação segura</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Todas as assinaturas protegidas pelo Security Center são mostradas (sem conjunto de filtros de assinatura)</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - Transparência</t>
-        </is>
-      </c>
+          <t>O AppGW RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1958,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1969,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Conformidade regulatória</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Os controles de conformidade são verdes para quaisquer requisitos de conformidade necessários</t>
+          <t xml:space="preserve">AppGW Todos os serviços Web externos estão criando Gateways de Aplicativo com WAF habilitado </t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2004,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,24 +2014,20 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Vulnerabilidades VM de alta gravidade são zero (vazias)</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verificar</t>
-        </is>
-      </c>
+          <t xml:space="preserve">AppGW Todos os serviços Web internos estão criando Gateways de Aplicativo com WAF habilitado </t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2053,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2071,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Hubs são protegidos por um Firewall Azure</t>
+          <t>AppGW - Voltado para o exterior tem TLS/SSL habilitado e redireciona todo o tráfego para 443 (sem tráfego da porta 80)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2098,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>960334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2116,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuais são protegidas por um Firewall</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verificar</t>
-        </is>
-      </c>
+          <t>Usar a Rota Expressa ou VPN para acessar recursos do Azure de ambientes locais</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2165,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Proteção DDOS</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Padrão DDoS ativado</t>
+          <t>Habilitado para IPs públicos do Firewall (todos os IPs públicos)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Cobertura</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Verifique se todas as assinaturas estão cobertas (veja preços e configurações para modificar)</t>
+          <t>O RBAC da porta da frente é usado para restringir o acesso à equipe de segurança de rede</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2256,17 +2240,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>IPs públicos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VM's com IPs públicos devem ser protegidos pelo NSG </t>
+          <t>O Front Door está associado a uma política do WAF</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2283,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2291,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb2eb0</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2302,24 +2286,20 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>IPs públicos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>VMs com IPs públicos são movidos atrás do Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>A política TLS/SSL da Front Door está configurada</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2333,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2341,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2352,24 +2332,20 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>IPs públicos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>VM's que não precisam de IPs públicos não têm IPs públicos (ou seja, somente RDP interno)</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>A porta de redirecionamento da porta frontal 80 para a porta 443 está configurada (ouvintes)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2383,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2402,23 +2378,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>O NSG RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+          <t>Os logs de diagnóstico da porta da frente enviam o ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog para o Sentinel LAW</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2429,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2437,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2448,7 +2424,7 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
@@ -2458,17 +2434,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>As regras de segurança de entrada do NSG não contêm um * (curinga) no campo Fonte</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>O NSG RBAAC é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2498,7 +2470,7 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
@@ -2508,17 +2480,17 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>As regras de segurança de saída do NSG são usadas para controlar o tráfego de endereços IP específicos para tráfego não roteado através de um Firewall</t>
+          <t>As regras de segurança de entrada do NSG não contêm um * (curinga) no campo Origem</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2537,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2548,7 +2520,7 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
@@ -2558,17 +2530,17 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>O NSG não tem a Fonte como um curinga no lugar.</t>
+          <t>As regras de segurança de saída do NSG são usadas para controlar o tráfego para endereços IP específicos para o tráfego não roteado por meio de um Firewall</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2559,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2598,7 +2570,7 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
@@ -2608,13 +2580,17 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Os diagnósticos NSG enviam o NetworkSecurityGroupEvent e o NetworkSecurityGroupRuleCounter para o Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>O NSG não tem o Source como um * (curinga) no lugar.</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2625,7 +2601,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2609,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2644,17 +2620,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>O NSG Diagnostics envia o tráfego NetworkSecurityGroupEvent e NetworkSecurityGroupRuleCounter para o Sentinel LAW</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2671,7 +2647,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2679,7 +2655,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2690,17 +2666,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>IPs públicos</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Se o Zero Trust, então os UDR's são usados para enviar todo o tráfego para o Azure Firewall Premium</t>
+          <t xml:space="preserve">VMs com IPs públicos devem ser protegidas pelo NSG </t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2717,7 +2693,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2725,7 +2701,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2736,27 +2712,27 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>IPs públicos</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Os UDR's que não enviam todo o tráfego para OzureFirewallPremium são conhecidos e documentados.</t>
+          <t>VMs com IPs públicos são movidas para trás do Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2743,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2751,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2786,20 +2762,24 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>IPs públicos</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>O cliente está familiarizado com os padrões de rede do Azure / roteamento padrão SDN no Azure</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>As VMs que não precisam de IPs públicos não têm IPs públicos (ou seja, apenas RDP interno)</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2813,7 +2793,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2821,7 +2801,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2832,24 +2812,20 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>O VNet RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>O UDR RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2863,14 +2839,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2881,17 +2857,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As recomendações de segurança do VNet são remediadas e não há VNets 'em risco' </t>
+          <t>Se Confiança Zero, as UDR serão usadas para enviar todo o tráfego para o Firewall Premium do Azure</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2884,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2892,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2927,23 +2903,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>As conexões de peering do VNet são compreendidas e os fluxos de tráfego esperados são documentados</t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="n"/>
+          <t>UDR que não enviam todo o tráfego para AzureFirewallPremium são conhecidos e documentados.</t>
+        </is>
+      </c>
+      <c r="D47" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2954,7 +2934,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2942,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2973,7 +2953,7 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
@@ -2983,7 +2963,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Os endpoints de serviço VNet estão em uso, não existem pontos finais legados do serviço público</t>
+          <t>O cliente está familiarizado com os padrões de rede do Azure / roteamento padrão SDN no Azure</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +2980,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3018,7 +2998,7 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
@@ -3028,13 +3008,17 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Os Endpoints Privados VNet estão em uso para permitir o acesso de ambientes locais, não existem pontos finais públicos legados</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
+          <t>O RBAC da rede virtual é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3045,14 +3029,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3063,7 +3047,7 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
@@ -3073,7 +3057,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento do VNet ativado</t>
+          <t xml:space="preserve">As recomendações de segurança da rede virtual são remediadas e não há redes virtuais "em risco" </t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3074,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3082,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3109,7 +3093,7 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
@@ -3119,7 +3103,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Tráfego seguro entre pods usando políticas de rede no Azure Kubernetes Service (AKS)</t>
+          <t>As conexões de emparelhamento de rede virtual são compreendidas e os fluxos de tráfego esperados são documentados</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3120,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3128,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3155,7 +3139,7 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
@@ -3165,7 +3149,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Cliente VNet NVA (eletrodomésticos) segue padrão de arquitetura publicado</t>
+          <t>Os Pontos de Extremidade de Serviço de Rede Virtual estão em uso, não existem Pontos de Extremidade de Serviço Público herdados</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3166,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3174,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3201,7 +3185,7 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
@@ -3211,7 +3195,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>As configurações do VNet Diagnostic estão habilitadas e enviam VMProtectionAlerts para a LEI do Azure Sentinel</t>
+          <t>Os pontos de extremidade privados da rede virtual estão em uso para permitir o acesso de ambientes locais, não existem pontos de extremidade públicos herdados</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3212,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3246,17 +3230,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use o ExpressRoute ou VPN para acessar recursos do Azure a partir de ambientes locais</t>
+          <t>Monitoramento de rede virtual habilitado</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3257,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3265,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3292,17 +3276,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>Tráfego seguro entre pods usando políticas de rede no Serviço Kubernetes do Azure (AKS)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3303,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3337,17 +3321,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>O cliente VWAN está usando o Secure Hub ou firewall externo para rotear e monitorar o tráfego.</t>
+          <t>VNet NVA (appliances) cliente segue padrão de arquitetura publicado</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3348,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3382,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+          <t>As configurações de Diagnóstico de Rede Virtual são habilitadas e enviam VMProtectionAlerts para o Azure Sentinel LAW</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3393,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3427,17 +3411,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos os serviços web voltados externos estão afer gateways de aplicativos com WAF ativado </t>
+          <t>O VWAN RBAAC é usado para restringir o acesso à equipe de segurança de rede</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3438,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3472,17 +3456,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos os serviços internos voltados para a Web estão behing Application Gateways com WAF ativado </t>
+          <t>O Cliente VWAN está usando o Secure Hub ou o Firewall externo para rotear e monitorar o tráfego.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3499,14 +3483,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3517,20 +3501,24 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - Frente externa tem TLS/SSL ativado e redireciona todo o tráfego para 443 (sem tráfego na porta 80)</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>Vulnerabilidades de VM de alta gravidade são zero (vazias)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3544,14 +3532,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3562,23 +3550,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Comunidade</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>O FRONT Door RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>O cliente está ciente do valor da página "Comunidade" e tem uma cadência regular configurada para revisão</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3589,14 +3577,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3607,17 +3595,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Cobertura</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente está associada a uma política WAF</t>
+          <t>Verifique se todas as assinaturas estão cobertas (consulte preços e configurações a serem modificadas)</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3622,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3652,23 +3640,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>A política TLS/SSL da porta frontal está configurada</t>
+          <t>Os Hubs são protegidos por um Firewall do Azure</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3679,7 +3667,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3675,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3698,23 +3686,27 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Porta de redirecionamento da porta 80 para porta 443 está configurada (ouvintes)</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
+          <t>As Redes Virtuais são protegidas por um Firewall</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3725,7 +3717,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3725,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3744,23 +3736,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Os registros de diagnósticos da Porta frontal enviam o ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog para o Sentinel LAW</t>
+          <t>DDoS Standard habilitado</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3771,7 +3763,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3771,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3790,17 +3782,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Proteção DDOS</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP's públicos do Firewall (todos os IPs públicos)</t>
+          <t>Central de Segurança/Defender habilitado em todas as assinaturas</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3809,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3827,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um único diretório empresarial para gerenciar identidades de funcionários em tempo integral e recursos corporativos.</t>
+          <t>Central de Segurança/Defender ativado em todos os espaços de trabalho do Log Analytics</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3854,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3862,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3881,23 +3873,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Sincronize sua identidade na nuvem com seus sistemas de identidade existentes.</t>
+          <t>Coleta de dados definida como 'Comum'</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3908,7 +3900,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3908,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3927,17 +3919,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use serviços de identidade na nuvem para hospedar contas não-funcionários, como fornecedores, parceiros e clientes, em vez de incluí-las em seu diretório local.</t>
+          <t>Os recursos de segurança aprimorados do Defender for Cloud estão todos habilitados</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3946,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3954,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3973,23 +3965,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Desativar protocolos legados inseguros para serviços voltados à internet.</t>
+          <t>Provisionamento automático habilitado de acordo com a política da empresa (a política deve existir)</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4000,7 +3992,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4000,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4019,23 +4011,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Habilitar um único login</t>
+          <t>Notificações por e-mail habilitadas de acordo com a política da empresa (a política deve existir)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4046,7 +4038,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4046,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4065,23 +4057,23 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Não sincronize contas com o maior acesso privilegiado aos recursos locais à medida que você sincroniza seus sistemas de identidade corporativa com diretórios em nuvem.</t>
+          <t xml:space="preserve">As opções de Ativar integrações estão selecionadas </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4092,7 +4084,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4092,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4111,23 +4103,23 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limitar o número de administradores globais a menos de 5</t>
+          <t>A integração CI/CD está configurada</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4138,7 +4130,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4138,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4157,17 +4149,17 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use grupos para atribuições de papéis do Azure AD e delegue a atribuição de função</t>
+          <t>A exportação contínua 'Event Hub' está habilitada se estiver usando o SIEM de 3ª parte</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4176,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4184,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4203,23 +4195,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os administradores de impacto críticos sejam gerenciados pelo diretório corporativo para acompanhar a aplicação da política organizacional.</t>
+          <t>A exportação contínua do 'Espaço de Trabalho do Log Analytics' está habilitada se não estiver usando o Azure Sentinel</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4230,7 +4222,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4230,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4249,17 +4241,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configure revisões de acesso recorrentes para revogar permissões não precisas ao longo do tempo</t>
+          <t>Conector de nuvem habilitado para AWS</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4268,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4276,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4295,23 +4287,23 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os administradores de impacto crítico usem uma estação de trabalho com proteções de segurança elevadas e monitoramento</t>
+          <t>Conector de nuvem habilitado para GCP</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4314,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4322,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4341,23 +4333,23 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Provedores de identidade: Verifique se são conhecidos os provedores de identidade externos</t>
+          <t>Se estiver usando o proxy do Aplicativo do Azure AD, considere a integração com o Microsoft Defender para Aplicativos em Nuvem para monitorar o acesso ao aplicativo em tempo real e aplicar controles de segurança avançados.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4360,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4368,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4387,23 +4379,23 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Recomendações</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: o acesso do usuário convidado definido para 'Acesso ao usuário convidado é restrito?'</t>
+          <t>Todas as recomendações remediadas ou desativadas, se não forem necessárias.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4414,7 +4406,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4414,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4433,20 +4425,24 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Recomendações</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: Configurações de convite de hóspedes definidas como 'Somente usuários atribuídos a funções específicas de administração'</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
+          <t>Pontuação de segurança&gt;70%</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
+        <is>
+          <t>A meta mínima da Microsoft para todos os clientes é de 70%</t>
+        </is>
+      </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -4460,7 +4456,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4479,17 +4475,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Conformidade Regulatória</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configurações de colaboração externa: habilite o autoatendimento do hóspede por meio de fluxos definidos como 'Desativados' </t>
+          <t>Os controles de conformidade são ecológicos para quaisquer requisitos de conformidade necessários</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4506,7 +4502,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4514,7 +4510,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4525,23 +4521,23 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Alertas de Secuity</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: restrições de colaboração definidas como 'Permitir convites para os domínios especificados'</t>
+          <t>Os Alertas de Segurança contêm apenas os gerados nas últimas 24 horas (corrigir ou desativar alertas de segurança mais antigos)</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4552,7 +4548,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4560,7 +4556,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4571,23 +4567,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Pontuação segura</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Avaliações de acesso: Habilitadas para todos os grupos</t>
-        </is>
-      </c>
-      <c r="D83" s="22" t="n"/>
+          <t>Todas as assinaturas protegidas pela Central de Segurança são mostradas (sem conjunto de filtros de assinatura)</t>
+        </is>
+      </c>
+      <c r="D83" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - Transparência</t>
+        </is>
+      </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4617,17 +4617,17 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Aplicações Corporativas</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consentimento &amp; Permissões: Permitir o consentimento do usuário para aplicativos de editores verificados</t>
+          <t>Se a exportação contínua estiver habilitada, as pastas de trabalho padrão serão publicadas no painel de segurança personalizado</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Aplicações Corporativas</t>
+          <t>Contas Break Glass</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consentimento &amp; Permissões: Permitir o consentimento do proprietário do grupo para proprietários de grupos selecionados </t>
+          <t>Pelo menos duas contas de quebra de vidro foram criadas e existe uma política em torno de seu uso</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Domínios personalizados</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Apenas domínios validados de clientes são registrados</t>
+          <t>Configurar políticas de acesso condicional / Controles de acesso</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,18 +4760,18 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Redefinição de senha</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Requisito de política de redefinição de senha de autoatendimento verificado em conformidade.</t>
+          <t>Condições: Locais Restritos</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4806,18 +4806,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Redefinição de senha</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Definir o número de dias antes que os usuários sejam solicitados a re-confirmar informações de autenticação não está definido como zero</t>
+          <t>Controles de acesso: MFA habilitado para todos os usuários</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4852,18 +4852,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Redefinição de senha</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Definir o número de métodos necessários para redefinir a senha são selecionados</t>
+          <t>Controles de acesso: Exigir MFA para administradores</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4874,7 +4874,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Configuração do usuário</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Desativar 'Os usuários podem registrar aplicativos'</t>
+          <t xml:space="preserve">Controles de acesso: Exigir MFA para o Gerenciamento do Azure </t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Configuração do usuário</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restringir o acesso ao portal Administrativo (portal.azure.com) apenas aos administradores</t>
+          <t>Controles de acesso: Bloquear protocolos herdados</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Configuração do usuário</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Desativar a 'conexão de conta do LinkedIn'</t>
+          <t>Controles de acesso: Exigir que os dispositivos sejam marcados como compatíveis</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Configurações de diagnóstico</t>
+          <t>Domínios personalizados</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Ativado e enviado para o espaço de trabalho Log Analytics com o Sentinel</t>
+          <t>Somente domínios de clientes validados são registrados</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM ativado</t>
+          <t>Configurações de diagnóstico</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidade privilegiado ativado</t>
+          <t>Ativado e enviado para o espaço de trabalho do Log Analytics com o Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>PIM ativado</t>
+          <t>Aplicativos corporativos</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implementar o acesso 'just in time' (JIT) para reduzir ainda mais o tempo de exposição de contas privilegiadas (reduzir o acesso permanente)</t>
+          <t>Consentimento e permissões: permitir o consentimento do usuário para aplicativos de editores verificados</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,18 +5174,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Aplicativos corporativos</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configure políticas de acesso condicional / Controles de Acesso</t>
+          <t xml:space="preserve">Consentimento e Permissões: Permitir o consentimento do proprietário do grupo para proprietários de grupos selecionados </t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5220,18 +5220,18 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Condições: Locais Restritos</t>
+          <t>Provedores de identidade: verifique se os provedores de identidade externos são conhecidos</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: MFA ativado para todos os usuários</t>
+          <t>Configurações de colaboração externa: o acesso do usuário convidado definido como 'O acesso do usuário convidado é restrito?'</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5312,18 +5312,18 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: Exigir MFA para administradores</t>
+          <t>Configurações de colaboração externa: configurações de convite de convidado definidas como 'Somente usuários atribuídos a funções de administrador específicas'</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controles de acesso: Exigir MFA para gerenciamento do Azure </t>
+          <t xml:space="preserve">Configurações de colaboração externa: habilite o registro de autoatendimento de convidado por meio de fluxos definidos como 'Desabilitado' </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: bloqueie protocolos legados</t>
+          <t>Configurações de colaboração externa: Restrições de colaboração definidas como 'Permitir convites para os domínios especificados'</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5450,18 +5450,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: Exigir que os dispositivos sejam marcados como compatíveis</t>
+          <t>Acessar Avaliações: Habilitado para todos os grupos</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Existe uma política para rastrear contas de usuários de hóspedes (ou seja, uso/exclusão/desativação)?</t>
+          <t>Existe uma política para rastrear contas de usuário convidado (ou seja, uso/exclusão/desabilitação)?</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Implementar o Score seguro de identidade com base nas melhores práticas do seu setor</t>
+          <t>Implemente o Identity Secure Score com base nas práticas recomendadas do seu setor</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Quebrar contas de vidro</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Pelo menos duas contas de vidro de quebra foram criadas e a política em torno de seu uso existe</t>
+          <t>Gerenciamento de Identidades Privilegiadas habilitado</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,17 +5633,17 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso VM aproveitando a política do Azure</t>
+          <t>Implementar o acesso "just in time" (JIT) para reduzir ainda mais o tempo de exposição para contas privilegiadas (reduzir o acesso permanente)</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5679,23 +5679,23 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Redefinição de senha</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduza a variabilidade na configuração e implantação de VMs aproveitando modelos</t>
+          <t>Requisito de política de redefinição de senha de autoatendimento verificado em conformidade.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0a77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5725,17 +5725,17 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Redefinição de senha</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Garantir acesso privilegiado para implantar VMS reduzindo quem tem acesso a Recursos através da Governança</t>
+          <t>Definir o número de dias antes que os usuários sejam solicitados a confirmar novamente as informações de autenticação não está definido como zero</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5771,23 +5771,23 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Redefinição de senha</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use vários VMs para suas cargas de trabalho para melhor disponibilidade </t>
+          <t>Definir o número de métodos necessários para redefinir a senha está selecionado</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5817,23 +5817,23 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implantar e testar uma solução de recuperação de desastres </t>
+          <t>Não sincronize contas com o acesso de privilégio mais alto a recursos locais à medida que sincroniza seus sistemas de identidade corporativa com diretórios de nuvem.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5863,23 +5863,23 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Conjuntos de Availabilty</t>
+          <t>Limitar o número de Administradores Globais a menos de 5</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5908,23 +5908,23 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidade</t>
+          <t>Usar grupos para atribuições de função do Azure AD e delegar a atribuição de função</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5954,23 +5954,23 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tolerância a falhas regionais </t>
+          <t>Certifique-se de que todos os administradores de impacto crítico sejam gerenciados pelo diretório corporativo para seguir a imposição de políticas organizacionais.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6000,17 +6000,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Proteger contra malware</t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Instalar soluções antimalware</t>
+          <t>Configurar revisões de acesso recorrentes para revogar permissões desnecessárias ao longo do tempo</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6046,23 +6046,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Proteger contra malware</t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integre a solução antimalware com o Security Center</t>
+          <t>Garantir que os administradores de impacto crítico usem uma estação de trabalho com proteções e monitoramento de segurança elevados</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6091,17 +6091,17 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atualizações vm</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Mantenha os VMs atualizados usando o Gerenciamento de Atualizações com automação do Azure</t>
+          <t>Estabeleça um único diretório corporativo para gerenciar identidades de funcionários em tempo integral e recursos corporativos.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6136,23 +6136,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atualizações vm</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que as imagens do Windows para implantação tenham o nível mais recente de atualizações </t>
+          <t>Sincronize sua identidade de nuvem com seus sistemas de identidade existentes.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6181,17 +6181,17 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atualizações vm</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Aplique rapidamente atualizações de segurança para VMs usando o Microsoft Defender for Cloud</t>
+          <t>Use os serviços de identidade de nuvem para hospedar contas de não funcionários, como fornecedores, parceiros e clientes, em vez de incluí-las em seu diretório local.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6227,17 +6227,17 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Criptografe seus VHDs</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Habilite a criptografia em seus VMs</t>
+          <t>Desative protocolos herdados inseguros para serviços voltados para a Internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6272,17 +6272,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Criptografe seus VHDs</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adicione a chave de criptografia chave (KEK) para adicionar camada de segurança para criptografia </t>
+          <t>Habilitar logon único</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6318,23 +6318,23 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Criptografe seus VHDs</t>
+          <t>Configuração do usuário</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Tire um instantâneo de discos antes da criptografia para fins de reversão</t>
+          <t>Desativar 'Os usuários podem registrar aplicativos'</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6364,17 +6364,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t>Configuração do usuário</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garantir que apenas o grupo central de rede tenha permissões para recursos de rede </t>
+          <t>Restringir o acesso ao Portal administrativo (portal.azure.com) apenas a administradores</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223e138</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6410,17 +6410,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t>Configuração do usuário</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>VMs expostos de identidade e correção que permitem o acesso a partir de adicionas IP de origem 'ANY'</t>
+          <t>Desativar 'Conexão de conta do LinkedIn'</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6456,17 +6456,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t>Regras do Google Analytics</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restringir portas de gerenciamento (RDP, SSH) usando acesso just-in-time</t>
+          <t xml:space="preserve">O cliente ativou as regras do Google Analytics e configurou os Incidentes </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6502,17 +6502,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t xml:space="preserve">Arquitetura </t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Remova o acesso à internet e implemente servidores de salto para RDP</t>
+          <t>Todos os locatários contêm o Sentinel habilitado em pelo menos um espaço de trabalho do Log Analytics</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6548,17 +6548,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t xml:space="preserve">Arquitetura </t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Remova o login direto em servidores usando RDP/SSH da internet e implemente VPN ou rota expressa</t>
+          <t>O cliente entende a arquitetura do Sentinel</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6593,23 +6593,23 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t xml:space="preserve">Arquitetura </t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Aproveite o Azure Bastion como seu corretor RDP/SSH para maior segurança e redução de pegada</t>
+          <t>O cliente sabe como monitorar incidentes em várias instâncias do Sentinel</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
       <c r="E127" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitetura </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Todos os inquilinos contêm sentinela habilitado em pelo menos um espaço de trabalho Log Analytics</t>
+          <t>Azure Active Directory configurado e 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitetura </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Cliente entende arquitetura Sentinela</t>
+          <t>A Proteção de Identidade do Active Directory do Azure está configurada e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6733,18 +6733,18 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitetura </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>O cliente sabe como monitorar incidentes em várias instâncias do Sentinel</t>
+          <t>A Atividade do Azure está configurada e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,18 +6778,18 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Sem Incidentes abertos mais de 24 horas</t>
+          <t>O Microsoft Defender para Nuvem está configurado e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
       <c r="E131" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Notícias e Guias</t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>O cliente foi mostrado na guia Notícias &amp; Guias</t>
+          <t>O Firewall do Azure está configurado e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Configurado pelo UEBA (Sentinel/Configurações/Configurações/Configurar UEBA)</t>
+          <t>O Firewall do Windows está configurado e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo do Azure em programas configurados e 'Último Log Recebido' hoje</t>
+          <t>O Security Events está configurado com AMA e o 'Last Log Received' é exibido hoje</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>A proteção de identidade do Diretório Ativo do Azure é configurada e 'Último Registro Recebido' é apresentado hoje</t>
+          <t>Eventos de Segurança - verifique se os computadores do Azure estão conectados e enviando dados para o espaço de trabalho</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>A Atividade do Azure está configurada e 'Último Registro Recebido' é apresentado hoje</t>
+          <t>Eventos de Segurança - verifique se computadores que não são do Azure estão conectados e enviando dados para o espaço de trabalho</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud é configurado e 'Último Log Recebido' mostra hoje</t>
+          <t>Conector para AWS</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>O Azure Firewall está configurado e o 'Último Log Recebido' é apresentado hoje</t>
+          <t>Conector para GCP</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7138,18 +7138,18 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Notícias e Guias</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>O Firewall do Windows está configurado e o 'Último Log Recebido' é apresentado hoje</t>
+          <t>Foi mostrada ao cliente a guia Notícias e Guias</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7183,18 +7183,18 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Eventos de segurança são configurados com os shows ama e 'Último Log Recebido' hoje</t>
+          <t>Nenhum incidente aberto mais de 24 horas</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7228,18 +7228,18 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Configurações</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Eventos de Segurança - verifique se os computadores do Azure estão conectados e enviando dados para o espaço de trabalho</t>
+          <t>O cliente não tem um limite diário habilitado</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
       <c r="E141" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7250,14 +7250,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7273,18 +7273,18 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Eventos de Segurança - verifique se computadores não-Azure estão conectados e enviando dados para o espaço de trabalho</t>
+          <t>UEBA Configurado (Sentinela/Configurações/Configurações/Configurar UEBA)</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7295,14 +7295,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7313,17 +7313,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conector para AWS</t>
+          <t>Controle o acesso à VM aproveitando a Política do Azure</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7358,23 +7358,23 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Conector para GCP</t>
+          <t>Reduza a variabilidade na configuração e implantação de VMs aproveitando modelos</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
       <c r="E144" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7385,14 +7385,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7403,23 +7403,23 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Regras de análise</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O cliente habilitou as regras de análise e configurou incidentes </t>
+          <t>Proteja o acesso privilegiado para implantar o VMS reduzindo quem tem acesso aos Recursos por meio da Governança</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
       <c r="E145" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7448,23 +7448,23 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Configurações</t>
+          <t>Criptografe seus VHDs</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>O cliente não tem um limite diário habilitado</t>
+          <t>Habilite a criptografia em suas VMs</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,17 +7493,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Criptografe seus VHDs</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium implantado</t>
+          <t xml:space="preserve">Adicionar chave de criptografia de chave (KEK) para adicionar camada de segurança para criptografia </t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7538,23 +7538,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Criptografe seus VHDs</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Tunning quad zero/force ativado através do Firewall Azure</t>
+          <t>Tire um instantâneo dos discos antes da criptografia para fins de reversão</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7583,17 +7583,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC definido para habilitar apenas usuários autorizados</t>
+          <t xml:space="preserve">Use várias VMs para suas cargas de trabalho para melhor disponibilidade </t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7628,17 +7628,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Configurações de diagnóstico</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnósticos ativados e envio de métricas para um espaço de trabalho do Log Analytics </t>
+          <t xml:space="preserve">Implantar e testar uma solução de recuperação de desastres </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7673,23 +7673,23 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Hubs e redes virtuais são protegidos ou conectados através do Firewall Premium</t>
+          <t>Conjuntos de disponibilidade</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7718,23 +7718,23 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Política: Os controles de acesso são configurados (RBAC)</t>
+          <t>Zonas de disponibilidade</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7763,23 +7763,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Política: A política dos pais está configurada </t>
+          <t xml:space="preserve">Tolerância a falhas regionais </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7808,17 +7808,17 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Gerenciar atualizações de VM</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Política: As coleções de regras são definidas</t>
+          <t>Mantenha as VMs atualizadas usando o Gerenciamento de Atualizações com a Automação do Azure</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7853,23 +7853,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Gerenciar atualizações de VM</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Política: As políticas de DNAT são definidas</t>
+          <t xml:space="preserve">Verifique se as imagens do Windows para implantação têm o nível mais recente de atualizações </t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7880,14 +7880,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7898,17 +7898,17 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Gerenciar atualizações de VM</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Política: As regras da rede são definidas</t>
+          <t>Aplique rapidamente atualizações de segurança a VMs usando o Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7925,14 +7925,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7943,17 +7943,17 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Proteja-se contra malware</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Política: As regras de aplicação são definidas</t>
+          <t>Instalar soluções antimalware</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7988,23 +7988,23 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Proteja-se contra malware</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Recurso compreendido e aplicado ou não aplicado</t>
+          <t>Integre a solução antimalware com a Central de Segurança</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8033,17 +8033,17 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Inteligência de Ameaças: Definir para Alertar e Negar</t>
+          <t xml:space="preserve">Verifique se apenas o grupo de rede central tem permissões para recursos de rede </t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8078,17 +8078,17 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Inteligência de Ameaças: Lista permitida (justificar se eles estão sendo usados - ou seja, desempenho)</t>
+          <t>Identificar e corrigir VMs expostas que permitem o acesso a partir de addess IP de origem 'ANY'</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8123,17 +8123,17 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS ativado</t>
+          <t>Restringir portas de gerenciamento (RDP, SSH) usando o Acesso Just-in-Time</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8168,17 +8168,17 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS ativado</t>
+          <t>Remover o acesso à Internet e implementar servidores de salto para RDP</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8213,17 +8213,17 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configurado </t>
+          <t>Remova o login direto em servidores usando RDP/SSH da Internet e implemente VPN ou rota expressa</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8258,23 +8258,23 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Proteção DDOS</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP's públicos do Firewall</t>
+          <t>Aproveite o Azure Bastion como seu agente RDP/SSH para maior segurança e redução do espaço ocupado</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8375,14 +8375,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8420,14 +8420,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8465,14 +8465,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8510,14 +8510,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8562,7 +8562,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8600,14 +8600,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8616,360 +8616,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10527,7 +11247,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10611,7 +11331,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10667,26 +11387,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10797,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este cheque ainda não foi examinado.</t>
+          <t>Esta verificação ainda não foi analisada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -10824,7 +11562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10834,7 +11572,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Há um item de ação associado a este cheque</t>
+          <t>Há um item de ação associado a essa verificação</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -10871,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta verificação foi verificada, e não há mais itens de ação associados a ele</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -10893,7 +11631,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10903,7 +11641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -10935,7 +11673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é aplicável para o design atual</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">

--- a/spreadsheet/security_checklist.pt.xlsx
+++ b/spreadsheet/security_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Lista de verificação de revisão de segurança do Azure</t>
+          <t>Azure Security Review Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Centro de segurança/Defender habilita em todas as assinaturas</t>
+          <t>RBAC definido para habilitar somente usuários autorizados</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Configuração</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Centro de segurança/Defender ativado em todos os espaços de trabalho do Log Analytics</t>
+          <t>Firewall do Azure Premium implantado</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Configuração</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Coleta de dados definida como 'Comum'</t>
+          <t>Ajuste quádruplo zero/força habilitado por meio do Firewall do Azure</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Proteção DDOS</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Os recursos de segurança aprimorados do Defender for Cloud estão todos habilitados</t>
+          <t>Habilitado para IPs públicos do Firewall</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Configurações de diagnóstico</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Provisionamento automático habilitado de acordo com a política da empresa (a política deve existir)</t>
+          <t xml:space="preserve">Diagnósticos habilitados e envio de métricas para um espaço de trabalho do Log Analytics </t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Notificações por e-mail habilitadas de acordo com a política da empresa (a política deve existir)</t>
+          <t>Hubs e redes virtuais são protegidos ou conectados através do Firewall Premium</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1371,23 +1371,23 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ativar as opções de integrações são selecionadas </t>
+          <t>Política: Os controles de acesso estão configurados (RBAC)</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>A integração CI/CD está configurada</t>
+          <t xml:space="preserve">Política: A política pai está configurada </t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>5b7bae4-4th-45e8-a79e-2e86667313c5</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>O 'Event Hub' de exportação contínua é ativado se usar o SIEM de terceiros</t>
+          <t>Política: as coleções de regras são definidas</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>O 'Log Analytics Workspace' de exportação contínua é ativado se não estiver usando o Azure Sentinel</t>
+          <t>Política: As políticas do DNAT são definidas</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Conector de nuvem habilitado para AWS</t>
+          <t>Política: As regras de rede são definidas</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Conector de nuvem habilitado para GCP</t>
+          <t>Política: As regras de aplicativo são definidas</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Preços e Configurações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Se usar o proxy do aplicativo Azure AD, considere integrar-se ao Microsoft Defender for Cloud Apps para monitorar o acesso de aplicativos em tempo real e aplicar controles de segurança avançados.</t>
+          <t>DNS: Recurso compreendido e aplicado ou não aplicado</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Recomendações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Todas as recomendações remediadas ou desativadas, se não forem necessárias.</t>
+          <t>Inteligência de Ameaças: Definir como Alertar e Negar</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,24 +1739,20 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Recomendações</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Pontuação de segurança&gt;70%</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>A meta mínima da Microsoft para todos os clientes é de 70%</t>
-        </is>
-      </c>
+          <t>Inteligência de Ameaças: Lista de permissões (justifique se eles estão sendo usados - ou seja, desempenho)</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1770,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1789,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Alertas de secuidade</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Os alertas de segurança contêm apenas aqueles gerados nas últimas 24 horas (remediar ou desativar alertas de segurança mais antigos)</t>
+          <t>TLS habilitado</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1816,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1835,23 +1831,23 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Se a exportação contínua estiver ativada, as pastas de trabalho padrão são publicadas no painel de segurança personalizado</t>
+          <t>IDPS habilitado</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Comunidade</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>O cliente está ciente do valor da página 'Comunidade' e tem uma cadência regular configurada para revisar</t>
+          <t xml:space="preserve">SNAT: Configurado </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,24 +1923,20 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Pontuação segura</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Todas as assinaturas protegidas pelo Security Center são mostradas (sem conjunto de filtros de assinatura)</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - Transparência</t>
-        </is>
-      </c>
+          <t>O AppGW RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1958,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1969,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Conformidade regulatória</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Os controles de conformidade são verdes para quaisquer requisitos de conformidade necessários</t>
+          <t xml:space="preserve">AppGW Todos os serviços Web externos estão por trás de Gateways de Aplicativo com WAF habilitado </t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2004,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,24 +2014,20 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Vulnerabilidades VM de alta gravidade são zero (vazias)</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verificar</t>
-        </is>
-      </c>
+          <t xml:space="preserve">AppGW Todos os serviços Web internos estão por trás dos Gateways de Aplicativo com WAF habilitado </t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2053,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2071,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Gateway de aplicativos</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Hubs são protegidos por um Firewall Azure</t>
+          <t>AppGW - Voltado para o exterior tem TLS/SSL habilitado e redireciona todo o tráfego para 443 (sem tráfego da porta 80)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2098,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>960334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2116,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuais são protegidas por um Firewall</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verificar</t>
-        </is>
-      </c>
+          <t>Usar a Rota Expressa ou VPN para acessar recursos do Azure de ambientes locais</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2165,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Proteção DDOS</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Padrão DDoS ativado</t>
+          <t>Habilitado para IPs públicos do Firewall (todos os IPs públicos)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Defender para nuvem</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Cobertura</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Verifique se todas as assinaturas estão cobertas (veja preços e configurações para modificar)</t>
+          <t>O RBAC da porta da frente é usado para restringir o acesso à equipe de segurança de rede</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2256,17 +2240,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>IPs públicos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">VM's com IPs públicos devem ser protegidos pelo NSG </t>
+          <t>O Front Door está associado a uma política do WAF</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2283,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2291,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb2eb0</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2302,24 +2286,20 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>IPs públicos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>VMs com IPs públicos são movidos atrás do Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>A política TLS/SSL da Front Door está configurada</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2333,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2341,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2352,24 +2332,20 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>IPs públicos</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>VM's que não precisam de IPs públicos não têm IPs públicos (ou seja, somente RDP interno)</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>A porta de redirecionamento da porta frontal 80 para a porta 443 está configurada (ouvintes)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2383,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2402,23 +2378,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Porta da frente</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>O NSG RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+          <t>Os logs de diagnóstico da porta da frente enviam o ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog para o Sentinel LAW</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2429,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2437,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2448,7 +2424,7 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
@@ -2458,17 +2434,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>As regras de segurança de entrada do NSG não contêm um * (curinga) no campo Fonte</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>O NSG RBAAC é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2498,7 +2470,7 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
@@ -2508,17 +2480,17 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>As regras de segurança de saída do NSG são usadas para controlar o tráfego de endereços IP específicos para tráfego não roteado através de um Firewall</t>
+          <t>As regras de segurança de entrada do NSG não contêm um * (curinga) no campo Origem</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2537,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2548,7 +2520,7 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
@@ -2558,17 +2530,17 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>O NSG não tem a Fonte como um curinga no lugar.</t>
+          <t>As regras de segurança de saída do NSG são usadas para controlar o tráfego para endereços IP específicos para o tráfego não roteado por meio de um Firewall</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2559,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2598,7 +2570,7 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
@@ -2608,13 +2580,17 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Os diagnósticos NSG enviam o NetworkSecurityGroupEvent e o NetworkSecurityGroupRuleCounter para o Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>O NSG não tem o Source como um * (curinga) no lugar.</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2625,7 +2601,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2609,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2644,17 +2620,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>O NSG Diagnostics envia o tráfego NetworkSecurityGroupEvent e NetworkSecurityGroupRuleCounter para o Sentinel LAW</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2671,7 +2647,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2679,7 +2655,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2690,17 +2666,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>IPs públicos</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Se o Zero Trust, então os UDR's são usados para enviar todo o tráfego para o Azure Firewall Premium</t>
+          <t xml:space="preserve">VMs com IPs públicos devem ser protegidas pelo NSG </t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2717,7 +2693,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2725,7 +2701,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2736,27 +2712,27 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>IPs públicos</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Os UDR's que não enviam todo o tráfego para OzureFirewallPremium são conhecidos e documentados.</t>
+          <t>VMs com IPs públicos são movidas para trás do Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2743,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2751,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2786,20 +2762,24 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>IPs públicos</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>O cliente está familiarizado com os padrões de rede do Azure / roteamento padrão SDN no Azure</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>As VMs que não precisam de IPs públicos não têm IPs públicos (ou seja, apenas RDP interno)</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2813,7 +2793,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2821,7 +2801,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2832,24 +2812,20 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>O VNet RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="inlineStr">
-        <is>
-          <t>Práticas recomendadas operacionais do cliente - verifique</t>
-        </is>
-      </c>
+          <t>O UDR RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
           <t>Média</t>
@@ -2863,14 +2839,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2881,17 +2857,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As recomendações de segurança do VNet são remediadas e não há VNets 'em risco' </t>
+          <t>Se Confiança Zero, as UDR serão usadas para enviar todo o tráfego para o Firewall Premium do Azure</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2884,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2892,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2927,23 +2903,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Redes Virtuais</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>As conexões de peering do VNet são compreendidas e os fluxos de tráfego esperados são documentados</t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="n"/>
+          <t>UDR que não enviam todo o tráfego para AzureFirewallPremium são conhecidos e documentados.</t>
+        </is>
+      </c>
+      <c r="D47" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2954,7 +2934,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2942,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2973,7 +2953,7 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
@@ -2983,7 +2963,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Os endpoints de serviço VNet estão em uso, não existem pontos finais legados do serviço público</t>
+          <t>O cliente está familiarizado com os padrões de rede do Azure / roteamento padrão SDN no Azure</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +2980,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3018,7 +2998,7 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
@@ -3028,13 +3008,17 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Os Endpoints Privados VNet estão em uso para permitir o acesso de ambientes locais, não existem pontos finais públicos legados</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
+          <t>O RBAC da rede virtual é usado para restringir o acesso à equipe de segurança de rede</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3045,14 +3029,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3063,7 +3047,7 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
@@ -3073,7 +3057,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Monitoramento do VNet ativado</t>
+          <t xml:space="preserve">As recomendações de segurança da rede virtual são remediadas e não há redes virtuais "em risco" </t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3074,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3082,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3109,7 +3093,7 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
@@ -3119,7 +3103,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Tráfego seguro entre pods usando políticas de rede no Azure Kubernetes Service (AKS)</t>
+          <t>As conexões de emparelhamento de rede virtual são compreendidas e os fluxos de tráfego esperados são documentados</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3120,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3128,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3155,7 +3139,7 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
@@ -3165,7 +3149,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Cliente VNet NVA (eletrodomésticos) segue padrão de arquitetura publicado</t>
+          <t>Os Pontos de Extremidade de Serviço de Rede Virtual estão em uso, não existem Pontos de Extremidade de Serviço Público herdados</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3166,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3174,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3201,7 +3185,7 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
@@ -3211,7 +3195,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>As configurações do VNet Diagnostic estão habilitadas e enviam VMProtectionAlerts para a LEI do Azure Sentinel</t>
+          <t>Os pontos de extremidade privados da rede virtual estão em uso para permitir o acesso de ambientes locais, não existem pontos de extremidade públicos herdados</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3212,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3246,17 +3230,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use o ExpressRoute ou VPN para acessar recursos do Azure a partir de ambientes locais</t>
+          <t>Monitoramento de rede virtual habilitado</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3257,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3265,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3292,17 +3276,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>Tráfego seguro entre pods usando políticas de rede no Serviço Kubernetes do Azure (AKS)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3303,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3337,17 +3321,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>O cliente VWAN está usando o Secure Hub ou firewall externo para rotear e monitorar o tráfego.</t>
+          <t>VNet NVA (appliances) cliente segue padrão de arquitetura publicado</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3348,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3382,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Redes Virtuais</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC é usado para restringir o acesso à equipe de segurança de rede</t>
+          <t>As configurações de Diagnóstico de Rede Virtual são habilitadas e enviam VMProtectionAlerts para o Azure Sentinel LAW</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3393,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3427,17 +3411,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos os serviços web voltados externos estão afer gateways de aplicativos com WAF ativado </t>
+          <t>O VWAN RBAAC é usado para restringir o acesso à equipe de segurança de rede</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3438,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3472,17 +3456,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos os serviços internos voltados para a Web estão behing Application Gateways com WAF ativado </t>
+          <t>O Cliente VWAN está usando o Secure Hub ou o Firewall externo para rotear e monitorar o tráfego.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3499,14 +3483,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3517,20 +3501,24 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Gateway de aplicativos</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - Frente externa tem TLS/SSL ativado e redireciona todo o tráfego para 443 (sem tráfego na porta 80)</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>Vulnerabilidades de VM de alta gravidade são zero (vazias)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3544,14 +3532,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3562,23 +3550,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Comunidade</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>O FRONT Door RBAC é usado para restringir o acesso à equipe de segurança da rede</t>
+          <t>O cliente está ciente do valor da página "Comunidade" e tem uma cadência regular configurada para revisão</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3589,14 +3577,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3607,17 +3595,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Cobertura</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Porta da Frente está associada a uma política WAF</t>
+          <t>Verifique se todas as assinaturas estão cobertas (consulte preços e configurações a serem modificadas)</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3622,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3652,23 +3640,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>A política TLS/SSL da porta frontal está configurada</t>
+          <t>Os Hubs são protegidos por um Firewall do Azure</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3679,7 +3667,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3675,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3698,23 +3686,27 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Porta de redirecionamento da porta 80 para porta 443 está configurada (ouvintes)</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
+          <t>As Redes Virtuais são protegidas por um Firewall</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - verificar</t>
+        </is>
+      </c>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3725,7 +3717,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3725,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3744,23 +3736,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>FrontDoor</t>
+          <t>Gerenciador de Firewall</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Os registros de diagnósticos da Porta frontal enviam o ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog para o Sentinel LAW</t>
+          <t>DDoS Standard habilitado</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3771,7 +3763,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3771,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3790,17 +3782,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Proteção DDOS</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP's públicos do Firewall (todos os IPs públicos)</t>
+          <t>Central de Segurança/Defender habilitado em todas as assinaturas</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3809,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3827,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Estabeleça um único diretório empresarial para gerenciar identidades de funcionários em tempo integral e recursos corporativos.</t>
+          <t>Central de Segurança/Defender ativado em todos os espaços de trabalho do Log Analytics</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3854,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3862,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3881,23 +3873,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Sincronize sua identidade na nuvem com seus sistemas de identidade existentes.</t>
+          <t>Coleta de dados definida como 'Comum'</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3908,7 +3900,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3908,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3927,17 +3919,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use serviços de identidade na nuvem para hospedar contas não-funcionários, como fornecedores, parceiros e clientes, em vez de incluí-las em seu diretório local.</t>
+          <t>Os recursos de segurança aprimorados do Defender for Cloud estão todos habilitados</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3946,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3954,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3973,23 +3965,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Desativar protocolos legados inseguros para serviços voltados à internet.</t>
+          <t>Provisionamento automático habilitado de acordo com a política da empresa (a política deve existir)</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4000,7 +3992,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4000,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4019,23 +4011,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Inquilino</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Habilitar um único login</t>
+          <t>Notificações por e-mail habilitadas de acordo com a política da empresa (a política deve existir)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4046,7 +4038,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4046,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4065,23 +4057,23 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Não sincronize contas com o maior acesso privilegiado aos recursos locais à medida que você sincroniza seus sistemas de identidade corporativa com diretórios em nuvem.</t>
+          <t xml:space="preserve">As opções de Ativar integrações estão selecionadas </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4092,7 +4084,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4092,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4111,23 +4103,23 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limitar o número de administradores globais a menos de 5</t>
+          <t>A integração CI/CD está configurada</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4138,7 +4130,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4138,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4157,17 +4149,17 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use grupos para atribuições de papéis do Azure AD e delegue a atribuição de função</t>
+          <t>A exportação contínua 'Event Hub' está habilitada se estiver usando o SIEM de 3ª parte</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4176,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4184,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4203,23 +4195,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que todos os administradores de impacto críticos sejam gerenciados pelo diretório corporativo para acompanhar a aplicação da política organizacional.</t>
+          <t>A exportação contínua do 'Espaço de Trabalho do Log Analytics' está habilitada se não estiver usando o Azure Sentinel</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4230,7 +4222,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4230,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4249,17 +4241,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configure revisões de acesso recorrentes para revogar permissões não precisas ao longo do tempo</t>
+          <t>Conector de nuvem habilitado para AWS</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4268,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4276,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4295,23 +4287,23 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Administração privilegiada</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os administradores de impacto crítico usem uma estação de trabalho com proteções de segurança elevadas e monitoramento</t>
+          <t>Conector de nuvem habilitado para GCP</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4314,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4322,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4341,23 +4333,23 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Preços e configurações</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Provedores de identidade: Verifique se são conhecidos os provedores de identidade externos</t>
+          <t>Se estiver usando o proxy do Aplicativo do Azure AD, considere a integração com o Microsoft Defender para Aplicativos em Nuvem para monitorar o acesso ao aplicativo em tempo real e aplicar controles de segurança avançados.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4360,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4368,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4387,23 +4379,23 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Recomendações</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: o acesso do usuário convidado definido para 'Acesso ao usuário convidado é restrito?'</t>
+          <t>Todas as recomendações remediadas ou desativadas, se não forem necessárias.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4414,7 +4406,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4414,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4433,20 +4425,24 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Recomendações</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: Configurações de convite de hóspedes definidas como 'Somente usuários atribuídos a funções específicas de administração'</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
+          <t>Pontuação de segurança&gt;70%</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
+        <is>
+          <t>A meta mínima da Microsoft para todos os clientes é de 70%</t>
+        </is>
+      </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -4460,7 +4456,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4479,17 +4475,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Conformidade Regulatória</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configurações de colaboração externa: habilite o autoatendimento do hóspede por meio de fluxos definidos como 'Desativados' </t>
+          <t>Os controles de conformidade são ecológicos para quaisquer requisitos de conformidade necessários</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4506,7 +4502,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4514,7 +4510,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4525,20 +4521,24 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Pontuação segura</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Configurações de colaboração externa: restrições de colaboração definidas como 'Permitir convites para os domínios especificados'</t>
-        </is>
-      </c>
-      <c r="D82" s="22" t="n"/>
+          <t>Todas as assinaturas protegidas pela Central de Segurança são mostradas (sem conjunto de filtros de assinatura)</t>
+        </is>
+      </c>
+      <c r="D82" s="22" t="inlineStr">
+        <is>
+          <t>Práticas recomendadas operacionais do cliente - Transparência</t>
+        </is>
+      </c>
       <c r="E82" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -4552,7 +4552,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4571,17 +4571,17 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Identidades Externas</t>
+          <t>Alertas de segurança</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Avaliações de acesso: Habilitadas para todos os grupos</t>
+          <t>Os Alertas de Segurança contêm apenas os gerados nas últimas 24 horas (corrigir ou desativar alertas de segurança mais antigos)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4617,17 +4617,17 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Defender para nuvem</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Aplicações Corporativas</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consentimento &amp; Permissões: Permitir o consentimento do usuário para aplicativos de editores verificados</t>
+          <t>Se a exportação contínua estiver habilitada, as pastas de trabalho padrão serão publicadas no painel de segurança personalizado</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Aplicações Corporativas</t>
+          <t>Contas Break Glass</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consentimento &amp; Permissões: Permitir o consentimento do proprietário do grupo para proprietários de grupos selecionados </t>
+          <t>Pelo menos duas contas de quebra de vidro foram criadas e existe uma política em torno de seu uso</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Domínios personalizados</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Apenas domínios validados de clientes são registrados</t>
+          <t>Configurar políticas de acesso condicional / Controles de acesso</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,18 +4760,18 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Redefinição de senha</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Requisito de política de redefinição de senha de autoatendimento verificado em conformidade.</t>
+          <t>Condições: Locais Restritos</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4806,18 +4806,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Redefinição de senha</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Definir o número de dias antes que os usuários sejam solicitados a re-confirmar informações de autenticação não está definido como zero</t>
+          <t>Controles de acesso: MFA habilitado para todos os usuários</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4852,18 +4852,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Redefinição de senha</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Definir o número de métodos necessários para redefinir a senha são selecionados</t>
+          <t>Controles de acesso: Exigir MFA para administradores</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4874,7 +4874,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Configuração do usuário</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Desativar 'Os usuários podem registrar aplicativos'</t>
+          <t xml:space="preserve">Controles de acesso: Exigir MFA para o Gerenciamento do Azure </t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Configuração do usuário</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restringir o acesso ao portal Administrativo (portal.azure.com) apenas aos administradores</t>
+          <t>Controles de acesso: Bloquear protocolos herdados</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Configuração do usuário</t>
+          <t>Políticas de Acesso Condicional</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Desativar a 'conexão de conta do LinkedIn'</t>
+          <t>Controles de acesso: Exigir que os dispositivos sejam marcados como compatíveis</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Configurações de diagnóstico</t>
+          <t>Domínios personalizados</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Ativado e enviado para o espaço de trabalho Log Analytics com o Sentinel</t>
+          <t>Somente domínios de clientes validados são registrados</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM ativado</t>
+          <t>Configurações de diagnóstico</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidade privilegiado ativado</t>
+          <t>Ativado e enviado para o espaço de trabalho do Log Analytics com o Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>PIM ativado</t>
+          <t>Aplicativos corporativos</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implementar o acesso 'just in time' (JIT) para reduzir ainda mais o tempo de exposição de contas privilegiadas (reduzir o acesso permanente)</t>
+          <t>Consentimento e permissões: permitir o consentimento do usuário para aplicativos de editores verificados</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,18 +5174,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Aplicativos corporativos</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configure políticas de acesso condicional / Controles de Acesso</t>
+          <t xml:space="preserve">Consentimento e Permissões: Permitir o consentimento do proprietário do grupo para proprietários de grupos selecionados </t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5220,18 +5220,18 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Condições: Locais Restritos</t>
+          <t>Provedores de identidade: verifique se os provedores de identidade externos são conhecidos</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: MFA ativado para todos os usuários</t>
+          <t>Configurações de colaboração externa: o acesso do usuário convidado definido como 'O acesso do usuário convidado é restrito?'</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5312,18 +5312,18 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: Exigir MFA para administradores</t>
+          <t>Configurações de colaboração externa: configurações de convite de convidado definidas como 'Somente usuários atribuídos a funções de administrador específicas'</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controles de acesso: Exigir MFA para gerenciamento do Azure </t>
+          <t xml:space="preserve">Configurações de colaboração externa: habilite o registro de autoatendimento de convidado por meio de fluxos definidos como 'Desabilitado' </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: bloqueie protocolos legados</t>
+          <t>Configurações de colaboração externa: Restrições de colaboração definidas como 'Permitir convites para os domínios especificados'</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5450,18 +5450,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Políticas de acesso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Controles de acesso: Exigir que os dispositivos sejam marcados como compatíveis</t>
+          <t>Acessar Avaliações: Habilitado para todos os grupos</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Existe uma política para rastrear contas de usuários de hóspedes (ou seja, uso/exclusão/desativação)?</t>
+          <t>Existe uma política para rastrear contas de usuário convidado (ou seja, uso/exclusão/desabilitação)?</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Implementar o Score seguro de identidade com base nas melhores práticas do seu setor</t>
+          <t>Implemente o Identity Secure Score com base nas práticas recomendadas do seu setor</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Quebrar contas de vidro</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Pelo menos duas contas de vidro de quebra foram criadas e a política em torno de seu uso existe</t>
+          <t>Gerenciamento de Identidades Privilegiadas habilitado</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,17 +5633,17 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso VM aproveitando a política do Azure</t>
+          <t>Implementar o acesso "just in time" (JIT) para reduzir ainda mais o tempo de exposição para contas privilegiadas (reduzir o acesso permanente)</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5679,23 +5679,23 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Redefinição de senha</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduza a variabilidade na configuração e implantação de VMs aproveitando modelos</t>
+          <t>Requisito de política de redefinição de senha de autoatendimento verificado em conformidade.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0a77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5725,17 +5725,17 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t>Redefinição de senha</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Garantir acesso privilegiado para implantar VMS reduzindo quem tem acesso a Recursos através da Governança</t>
+          <t>Definir o número de dias antes que os usuários sejam solicitados a confirmar novamente as informações de autenticação não está definido como zero</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5771,23 +5771,23 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Redefinição de senha</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use vários VMs para suas cargas de trabalho para melhor disponibilidade </t>
+          <t>Definir o número de métodos necessários para redefinir a senha está selecionado</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5817,23 +5817,23 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implantar e testar uma solução de recuperação de desastres </t>
+          <t>Não sincronize contas com o acesso de privilégio mais alto a recursos locais à medida que sincroniza seus sistemas de identidade corporativa com diretórios de nuvem.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5863,23 +5863,23 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Conjuntos de Availabilty</t>
+          <t>Limitar o número de Administradores Globais a menos de 5</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5908,23 +5908,23 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidade</t>
+          <t>Usar grupos para atribuições de função do Azure AD e delegar a atribuição de função</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5954,23 +5954,23 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidade </t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tolerância a falhas regionais </t>
+          <t>Certifique-se de que todos os administradores de impacto crítico sejam gerenciados pelo diretório corporativo para seguir a imposição de políticas organizacionais.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6000,17 +6000,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Proteger contra malware</t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Instalar soluções antimalware</t>
+          <t>Configurar revisões de acesso recorrentes para revogar permissões desnecessárias ao longo do tempo</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6046,23 +6046,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Proteger contra malware</t>
+          <t>Administração privilegiada</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integre a solução antimalware com o Security Center</t>
+          <t>Garantir que os administradores de impacto crítico usem uma estação de trabalho com proteções e monitoramento de segurança elevados</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6091,17 +6091,17 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atualizações vm</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Mantenha os VMs atualizados usando o Gerenciamento de Atualizações com automação do Azure</t>
+          <t>Estabeleça um único diretório corporativo para gerenciar identidades de funcionários em tempo integral e recursos corporativos.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6136,23 +6136,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atualizações vm</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que as imagens do Windows para implantação tenham o nível mais recente de atualizações </t>
+          <t>Sincronize sua identidade de nuvem com seus sistemas de identidade existentes.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6181,17 +6181,17 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Gerenciar atualizações vm</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Aplique rapidamente atualizações de segurança para VMs usando o Microsoft Defender for Cloud</t>
+          <t>Use os serviços de identidade de nuvem para hospedar contas de não funcionários, como fornecedores, parceiros e clientes, em vez de incluí-las em seu diretório local.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6227,17 +6227,17 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Criptografe seus VHDs</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Habilite a criptografia em seus VMs</t>
+          <t>Desative protocolos herdados inseguros para serviços voltados para a Internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6272,17 +6272,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Criptografe seus VHDs</t>
+          <t>Inquilino</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adicione a chave de criptografia chave (KEK) para adicionar camada de segurança para criptografia </t>
+          <t>Habilitar logon único</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6318,23 +6318,23 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Criptografe seus VHDs</t>
+          <t>Configuração do usuário</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Tire um instantâneo de discos antes da criptografia para fins de reversão</t>
+          <t>Desativar 'Os usuários podem registrar aplicativos'</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6364,17 +6364,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t>Configuração do usuário</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garantir que apenas o grupo central de rede tenha permissões para recursos de rede </t>
+          <t>Restringir o acesso ao Portal administrativo (portal.azure.com) apenas a administradores</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223e138</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6410,17 +6410,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t>Configuração do usuário</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>VMs expostos de identidade e correção que permitem o acesso a partir de adicionas IP de origem 'ANY'</t>
+          <t>Desativar 'Conexão de conta do LinkedIn'</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6456,17 +6456,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t>Regras do Google Analytics</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restringir portas de gerenciamento (RDP, SSH) usando acesso just-in-time</t>
+          <t xml:space="preserve">O cliente ativou as regras do Google Analytics e configurou os Incidentes </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6502,17 +6502,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t xml:space="preserve">Arquitetura </t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Remova o acesso à internet e implemente servidores de salto para RDP</t>
+          <t>Todos os locatários contêm o Sentinel habilitado em pelo menos um espaço de trabalho do Log Analytics</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6548,17 +6548,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t xml:space="preserve">Arquitetura </t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Remova o login direto em servidores usando RDP/SSH da internet e implemente VPN ou rota expressa</t>
+          <t>O cliente entende a arquitetura do Sentinel</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6593,23 +6593,23 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Sentinela</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir a conexão direta à internet </t>
+          <t xml:space="preserve">Arquitetura </t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Aproveite o Azure Bastion como seu corretor RDP/SSH para maior segurança e redução de pegada</t>
+          <t>O cliente sabe como monitorar incidentes em várias instâncias do Sentinel</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
       <c r="E127" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitetura </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Todos os inquilinos contêm sentinela habilitado em pelo menos um espaço de trabalho Log Analytics</t>
+          <t>Azure Active Directory configurado e 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitetura </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Cliente entende arquitetura Sentinela</t>
+          <t>A Proteção de Identidade do Active Directory do Azure está configurada e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6733,18 +6733,18 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitetura </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>O cliente sabe como monitorar incidentes em várias instâncias do Sentinel</t>
+          <t>A Atividade do Azure está configurada e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,18 +6778,18 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Visão geral</t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Sem Incidentes abertos mais de 24 horas</t>
+          <t>O Microsoft Defender para Nuvem está configurado e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
       <c r="E131" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Notícias e Guias</t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>O cliente foi mostrado na guia Notícias &amp; Guias</t>
+          <t>O Firewall do Azure está configurado e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Conectores de dados</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Configurado pelo UEBA (Sentinel/Configurações/Configurações/Configurar UEBA)</t>
+          <t>O Firewall do Windows está configurado e o 'Último Log Recebido' é exibido hoje</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Diretório Ativo do Azure em programas configurados e 'Último Log Recebido' hoje</t>
+          <t>O Security Events está configurado com AMA e o 'Last Log Received' é exibido hoje</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>A proteção de identidade do Diretório Ativo do Azure é configurada e 'Último Registro Recebido' é apresentado hoje</t>
+          <t>Eventos de Segurança - verifique se os computadores do Azure estão conectados e enviando dados para o espaço de trabalho</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>A Atividade do Azure está configurada e 'Último Registro Recebido' é apresentado hoje</t>
+          <t>Eventos de Segurança - verifique se computadores que não são do Azure estão conectados e enviando dados para o espaço de trabalho</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud é configurado e 'Último Log Recebido' mostra hoje</t>
+          <t>Conector para AWS</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>O Azure Firewall está configurado e o 'Último Log Recebido' é apresentado hoje</t>
+          <t>Conector para GCP</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7138,18 +7138,18 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Notícias e Guias</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>O Firewall do Windows está configurado e o 'Último Log Recebido' é apresentado hoje</t>
+          <t>Foi mostrada ao cliente a guia Notícias e Guias</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7183,18 +7183,18 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Visão geral</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Eventos de segurança são configurados com os shows ama e 'Último Log Recebido' hoje</t>
+          <t>Nenhum incidente aberto mais de 24 horas</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7228,18 +7228,18 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Configurações</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Eventos de Segurança - verifique se os computadores do Azure estão conectados e enviando dados para o espaço de trabalho</t>
+          <t>O cliente não tem um limite diário habilitado</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
       <c r="E141" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7250,14 +7250,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7273,18 +7273,18 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Eventos de Segurança - verifique se computadores não-Azure estão conectados e enviando dados para o espaço de trabalho</t>
+          <t>UEBA Configurado (Sentinela/Configurações/Configurações/Configurar UEBA)</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7295,14 +7295,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7313,17 +7313,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conector para AWS</t>
+          <t>Controle o acesso à VM aproveitando a Política do Azure</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7358,23 +7358,23 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Conectores de dados</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Conector para GCP</t>
+          <t>Reduza a variabilidade na configuração e implantação de VMs aproveitando modelos</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
       <c r="E144" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7385,14 +7385,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7403,23 +7403,23 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Regras de análise</t>
+          <t>Controle de acesso</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O cliente habilitou as regras de análise e configurou incidentes </t>
+          <t>Proteja o acesso privilegiado para implantar o VMS reduzindo quem tem acesso aos Recursos por meio da Governança</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
       <c r="E145" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7448,23 +7448,23 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Sentinela</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Configurações</t>
+          <t>Criptografe seus VHDs</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>O cliente não tem um limite diário habilitado</t>
+          <t>Habilite a criptografia em suas VMs</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,17 +7493,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Criptografe seus VHDs</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium implantado</t>
+          <t xml:space="preserve">Adicionar chave de criptografia de chave (KEK) para adicionar camada de segurança para criptografia </t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7538,23 +7538,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Configuração</t>
+          <t>Criptografe seus VHDs</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Tunning quad zero/force ativado através do Firewall Azure</t>
+          <t>Tire um instantâneo dos discos antes da criptografia para fins de reversão</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7583,17 +7583,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Controle de acesso</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC definido para habilitar apenas usuários autorizados</t>
+          <t xml:space="preserve">Use várias VMs para suas cargas de trabalho para melhor disponibilidade </t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7628,17 +7628,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Configurações de diagnóstico</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnósticos ativados e envio de métricas para um espaço de trabalho do Log Analytics </t>
+          <t xml:space="preserve">Implantar e testar uma solução de recuperação de desastres </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7673,23 +7673,23 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Hubs e redes virtuais são protegidos ou conectados através do Firewall Premium</t>
+          <t>Conjuntos de disponibilidade</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7718,23 +7718,23 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Política: Os controles de acesso são configurados (RBAC)</t>
+          <t>Zonas de disponibilidade</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7763,23 +7763,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Alta disponibilidade </t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Política: A política dos pais está configurada </t>
+          <t xml:space="preserve">Tolerância a falhas regionais </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7808,17 +7808,17 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Gerenciar atualizações de VM</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Política: As coleções de regras são definidas</t>
+          <t>Mantenha as VMs atualizadas usando o Gerenciamento de Atualizações com a Automação do Azure</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7853,23 +7853,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Gerenciar atualizações de VM</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Política: As políticas de DNAT são definidas</t>
+          <t xml:space="preserve">Verifique se as imagens do Windows para implantação têm o nível mais recente de atualizações </t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7880,14 +7880,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7898,17 +7898,17 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Gerenciar atualizações de VM</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Política: As regras da rede são definidas</t>
+          <t>Aplique rapidamente atualizações de segurança a VMs usando o Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7925,14 +7925,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7943,17 +7943,17 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Proteja-se contra malware</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Política: As regras de aplicação são definidas</t>
+          <t>Instalar soluções antimalware</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7988,23 +7988,23 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t>Proteja-se contra malware</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Recurso compreendido e aplicado ou não aplicado</t>
+          <t>Integre a solução antimalware com a Central de Segurança</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8033,17 +8033,17 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Inteligência de Ameaças: Definir para Alertar e Negar</t>
+          <t xml:space="preserve">Verifique se apenas o grupo de rede central tem permissões para recursos de rede </t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8078,17 +8078,17 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Inteligência de Ameaças: Lista permitida (justificar se eles estão sendo usados - ou seja, desempenho)</t>
+          <t>Identificar e corrigir VMs expostas que permitem o acesso a partir de 'QUALQUER' endereço IP de origem</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8123,17 +8123,17 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS ativado</t>
+          <t>Restringir portas de gerenciamento (RDP, SSH) usando o Acesso Just-in-Time</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8168,17 +8168,17 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS ativado</t>
+          <t>Remover o acesso à Internet e implementar servidores de salto para RDP</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8213,17 +8213,17 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Gerente de Firewall</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configurado </t>
+          <t>Remova o login direto em servidores usando RDP/SSH da Internet e implemente VPN ou rota expressa</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8258,23 +8258,23 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Proteção DDOS</t>
+          <t xml:space="preserve">Restringir a conexão direta com a Internet </t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP's públicos do Firewall</t>
+          <t>Aproveite o Azure Bastion como seu agente RDP/SSH para maior segurança e redução do espaço ocupado</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8375,14 +8375,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8420,14 +8420,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8465,14 +8465,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8510,14 +8510,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8562,7 +8562,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8600,14 +8600,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8616,360 +8616,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10527,7 +11247,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10611,7 +11331,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10667,26 +11387,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10797,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este cheque ainda não foi examinado.</t>
+          <t>Esta verificação ainda não foi analisada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -10824,7 +11562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rede Azure</t>
+          <t>Rede do Azure</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10834,7 +11572,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Há um item de ação associado a este cheque</t>
+          <t>Há um item de ação associado a essa verificação</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -10871,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta verificação foi verificada, e não há mais itens de ação associados a ele</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -10893,7 +11631,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Verificações de segurança VM</t>
+          <t>Verificações de segurança da VM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10903,7 +11641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -10935,7 +11673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é aplicável para o design atual</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
